--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>501459</v>
+        <v>504271</v>
       </c>
       <c r="D2" t="n">
-        <v>150523</v>
+        <v>150682</v>
       </c>
       <c r="E2" t="n">
-        <v>776404164</v>
+        <v>783068210</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D3" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E3" t="n">
-        <v>637158</v>
+        <v>640423</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D4" t="n">
         <v>161</v>
       </c>
       <c r="E4" t="n">
-        <v>1569235</v>
+        <v>1587302</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1842</v>
+        <v>1864</v>
       </c>
       <c r="D8" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E8" t="n">
-        <v>7077528</v>
+        <v>7197164</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" t="n">
         <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>303223</v>
+        <v>323223</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>198196</v>
+        <v>199693</v>
       </c>
       <c r="D10" t="n">
-        <v>60977</v>
+        <v>61119</v>
       </c>
       <c r="E10" t="n">
-        <v>585495029</v>
+        <v>593435703</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="D11" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E11" t="n">
-        <v>3344179</v>
+        <v>3388511</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>149572</v>
+        <v>170238</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>104187</v>
+        <v>104855</v>
       </c>
       <c r="D13" t="n">
-        <v>30754</v>
+        <v>30842</v>
       </c>
       <c r="E13" t="n">
-        <v>305810419</v>
+        <v>309302023</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5750</v>
+        <v>5786</v>
       </c>
       <c r="D15" t="n">
-        <v>2536</v>
+        <v>2540</v>
       </c>
       <c r="E15" t="n">
-        <v>10555286</v>
+        <v>10663147</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D16" t="n">
         <v>61</v>
       </c>
       <c r="E16" t="n">
-        <v>853883</v>
+        <v>860126</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13550</v>
+        <v>13647</v>
       </c>
       <c r="D17" t="n">
-        <v>3601</v>
+        <v>3611</v>
       </c>
       <c r="E17" t="n">
-        <v>32904461</v>
+        <v>33257408</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>118465</v>
+        <v>119133</v>
       </c>
       <c r="D19" t="n">
-        <v>36853</v>
+        <v>36901</v>
       </c>
       <c r="E19" t="n">
-        <v>181707815</v>
+        <v>183417352</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D20" t="n">
         <v>22</v>
       </c>
       <c r="E20" t="n">
-        <v>157221</v>
+        <v>161101</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1204,13 +1204,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" t="n">
         <v>22</v>
       </c>
       <c r="E21" t="n">
-        <v>121755</v>
+        <v>127198</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="D24" t="n">
         <v>157</v>
       </c>
       <c r="E24" t="n">
-        <v>1834130</v>
+        <v>1867387</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1368,13 +1368,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>53253</v>
+        <v>53645</v>
       </c>
       <c r="D25" t="n">
-        <v>16771</v>
+        <v>16824</v>
       </c>
       <c r="E25" t="n">
-        <v>153249300</v>
+        <v>155345711</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D26" t="n">
         <v>46</v>
       </c>
       <c r="E26" t="n">
-        <v>1007840</v>
+        <v>1010840</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19811</v>
+        <v>19961</v>
       </c>
       <c r="D28" t="n">
-        <v>6084</v>
+        <v>6101</v>
       </c>
       <c r="E28" t="n">
-        <v>56738232</v>
+        <v>57527506</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2325</v>
+        <v>2345</v>
       </c>
       <c r="D30" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="E30" t="n">
-        <v>4683311</v>
+        <v>4738040</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3489</v>
+        <v>3522</v>
       </c>
       <c r="D32" t="n">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E32" t="n">
-        <v>8215534</v>
+        <v>8353762</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>144422</v>
+        <v>145178</v>
       </c>
       <c r="D33" t="n">
-        <v>46927</v>
+        <v>46994</v>
       </c>
       <c r="E33" t="n">
-        <v>226136568</v>
+        <v>228013611</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1737,13 +1737,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D34" t="n">
         <v>31</v>
       </c>
       <c r="E34" t="n">
-        <v>117071</v>
+        <v>127071</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2119</v>
+        <v>2136</v>
       </c>
       <c r="D36" t="n">
         <v>591</v>
       </c>
       <c r="E36" t="n">
-        <v>8665577</v>
+        <v>8770871</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>74393</v>
+        <v>74942</v>
       </c>
       <c r="D38" t="n">
-        <v>23328</v>
+        <v>23384</v>
       </c>
       <c r="E38" t="n">
-        <v>222423554</v>
+        <v>225377854</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D39" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E39" t="n">
-        <v>830852</v>
+        <v>863541</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1983,13 +1983,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>37500</v>
+        <v>39000</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>16155</v>
+        <v>16256</v>
       </c>
       <c r="D41" t="n">
-        <v>5112</v>
+        <v>5130</v>
       </c>
       <c r="E41" t="n">
-        <v>50376297</v>
+        <v>50902601</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1922</v>
+        <v>1936</v>
       </c>
       <c r="D43" t="n">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="E43" t="n">
-        <v>3465544</v>
+        <v>3522898</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4393</v>
+        <v>4421</v>
       </c>
       <c r="D44" t="n">
-        <v>1226</v>
+        <v>1231</v>
       </c>
       <c r="E44" t="n">
-        <v>10825371</v>
+        <v>10954548</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2188,13 +2188,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>104116</v>
+        <v>104614</v>
       </c>
       <c r="D45" t="n">
-        <v>32644</v>
+        <v>32676</v>
       </c>
       <c r="E45" t="n">
-        <v>161296596</v>
+        <v>162687263</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D47" t="n">
         <v>19</v>
       </c>
       <c r="E47" t="n">
-        <v>179477</v>
+        <v>188737</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>762</v>
+        <v>769</v>
       </c>
       <c r="D49" t="n">
         <v>234</v>
       </c>
       <c r="E49" t="n">
-        <v>2718973</v>
+        <v>2750137</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>45687</v>
+        <v>45971</v>
       </c>
       <c r="D50" t="n">
-        <v>14367</v>
+        <v>14389</v>
       </c>
       <c r="E50" t="n">
-        <v>127215675</v>
+        <v>128874362</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2434,13 +2434,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D51" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E51" t="n">
-        <v>652907</v>
+        <v>673573</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2516,13 +2516,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>18575</v>
+        <v>18681</v>
       </c>
       <c r="D53" t="n">
-        <v>5607</v>
+        <v>5624</v>
       </c>
       <c r="E53" t="n">
-        <v>50747230</v>
+        <v>51246795</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1957</v>
+        <v>1967</v>
       </c>
       <c r="D54" t="n">
         <v>776</v>
       </c>
       <c r="E54" t="n">
-        <v>3788058</v>
+        <v>3821300</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2905</v>
+        <v>2925</v>
       </c>
       <c r="D56" t="n">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="E56" t="n">
-        <v>6733716</v>
+        <v>6840921</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>31432</v>
+        <v>31561</v>
       </c>
       <c r="D58" t="n">
-        <v>9197</v>
+        <v>9204</v>
       </c>
       <c r="E58" t="n">
-        <v>51920671</v>
+        <v>52315737</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2885,13 +2885,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>13791</v>
+        <v>13914</v>
       </c>
       <c r="D62" t="n">
-        <v>3986</v>
+        <v>4002</v>
       </c>
       <c r="E62" t="n">
-        <v>46636551</v>
+        <v>47360205</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9187</v>
+        <v>9252</v>
       </c>
       <c r="D64" t="n">
-        <v>2641</v>
+        <v>2652</v>
       </c>
       <c r="E64" t="n">
-        <v>27962015</v>
+        <v>28309900</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="D65" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E65" t="n">
-        <v>1467844</v>
+        <v>1473800</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3049,13 +3049,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D66" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E66" t="n">
-        <v>1212558</v>
+        <v>1223686</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3090,13 +3090,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>218433</v>
+        <v>219905</v>
       </c>
       <c r="D67" t="n">
-        <v>68811</v>
+        <v>69054</v>
       </c>
       <c r="E67" t="n">
-        <v>346955065</v>
+        <v>351192233</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3131,13 +3131,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D68" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E68" t="n">
-        <v>661420</v>
+        <v>717874</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3172,13 +3172,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D69" t="n">
         <v>44</v>
       </c>
       <c r="E69" t="n">
-        <v>389847</v>
+        <v>392847</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>941</v>
+        <v>957</v>
       </c>
       <c r="D71" t="n">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E71" t="n">
-        <v>3329297</v>
+        <v>3418356</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3336,13 +3336,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>104370</v>
+        <v>105313</v>
       </c>
       <c r="D73" t="n">
-        <v>33095</v>
+        <v>33216</v>
       </c>
       <c r="E73" t="n">
-        <v>297248024</v>
+        <v>302252012</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D74" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E74" t="n">
-        <v>2472039</v>
+        <v>2500725</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3418,13 +3418,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D75" t="n">
         <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>235241</v>
+        <v>245241</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3459,13 +3459,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>49868</v>
+        <v>50288</v>
       </c>
       <c r="D76" t="n">
-        <v>15463</v>
+        <v>15518</v>
       </c>
       <c r="E76" t="n">
-        <v>142306770</v>
+        <v>144568628</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D77" t="n">
         <v>19</v>
       </c>
       <c r="E77" t="n">
-        <v>56302</v>
+        <v>57940</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3541,13 +3541,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D78" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E78" t="n">
-        <v>622648</v>
+        <v>635648</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>9195</v>
+        <v>9503</v>
       </c>
       <c r="D79" t="n">
-        <v>5104</v>
+        <v>5275</v>
       </c>
       <c r="E79" t="n">
-        <v>36108223</v>
+        <v>37989222</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3623,13 +3623,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5413</v>
+        <v>5462</v>
       </c>
       <c r="D80" t="n">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="E80" t="n">
-        <v>13264581</v>
+        <v>13480359</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>46871</v>
+        <v>47046</v>
       </c>
       <c r="D81" t="n">
-        <v>11933</v>
+        <v>11939</v>
       </c>
       <c r="E81" t="n">
-        <v>71543154</v>
+        <v>71847263</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3787,13 +3787,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>11256</v>
+        <v>11295</v>
       </c>
       <c r="D84" t="n">
-        <v>3154</v>
+        <v>3157</v>
       </c>
       <c r="E84" t="n">
-        <v>21182834</v>
+        <v>21342527</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>10554</v>
+        <v>10582</v>
       </c>
       <c r="D86" t="n">
         <v>2652</v>
       </c>
       <c r="E86" t="n">
-        <v>18580453</v>
+        <v>18702087</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3951,13 +3951,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D88" t="n">
         <v>188</v>
       </c>
       <c r="E88" t="n">
-        <v>1161593</v>
+        <v>1163093</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3992,13 +3992,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>19280</v>
+        <v>19306</v>
       </c>
       <c r="D89" t="n">
-        <v>3634</v>
+        <v>3636</v>
       </c>
       <c r="E89" t="n">
-        <v>39585066</v>
+        <v>39659369</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4033,13 +4033,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4346</v>
+        <v>4350</v>
       </c>
       <c r="D90" t="n">
         <v>882</v>
       </c>
       <c r="E90" t="n">
-        <v>9847977</v>
+        <v>9871477</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4115,13 +4115,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6285</v>
+        <v>6291</v>
       </c>
       <c r="D92" t="n">
         <v>1217</v>
       </c>
       <c r="E92" t="n">
-        <v>14341479</v>
+        <v>14350479</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4279,13 +4279,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>216291</v>
+        <v>217296</v>
       </c>
       <c r="D96" t="n">
-        <v>66105</v>
+        <v>66197</v>
       </c>
       <c r="E96" t="n">
-        <v>327471684</v>
+        <v>330021675</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4484,13 +4484,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2009</v>
+        <v>2035</v>
       </c>
       <c r="D101" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E101" t="n">
-        <v>7188620</v>
+        <v>7377137</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4566,13 +4566,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>86168</v>
+        <v>86676</v>
       </c>
       <c r="D103" t="n">
-        <v>26704</v>
+        <v>26758</v>
       </c>
       <c r="E103" t="n">
-        <v>241065476</v>
+        <v>243727921</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D104" t="n">
         <v>90</v>
       </c>
       <c r="E104" t="n">
-        <v>1770324</v>
+        <v>1800324</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4648,13 +4648,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="n">
-        <v>157690</v>
+        <v>159190</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4689,13 +4689,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>46625</v>
+        <v>46929</v>
       </c>
       <c r="D106" t="n">
-        <v>13485</v>
+        <v>13517</v>
       </c>
       <c r="E106" t="n">
-        <v>128519964</v>
+        <v>129846223</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4771,13 +4771,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2158</v>
+        <v>2184</v>
       </c>
       <c r="D108" t="n">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="E108" t="n">
-        <v>4852822</v>
+        <v>5022860</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4418</v>
+        <v>4452</v>
       </c>
       <c r="D109" t="n">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="E109" t="n">
-        <v>10419243</v>
+        <v>10543033</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4853,13 +4853,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D110" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>29766</v>
+        <v>31266</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4894,13 +4894,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>865230</v>
+        <v>868807</v>
       </c>
       <c r="D111" t="n">
-        <v>213404</v>
+        <v>213575</v>
       </c>
       <c r="E111" t="n">
-        <v>1416773466</v>
+        <v>1425199155</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4935,13 +4935,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D112" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E112" t="n">
-        <v>318271</v>
+        <v>321271</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4976,13 +4976,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D113" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E113" t="n">
-        <v>1232643</v>
+        <v>1282075</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5099,13 +5099,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3557</v>
+        <v>3593</v>
       </c>
       <c r="D116" t="n">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="E116" t="n">
-        <v>19803599</v>
+        <v>20081093</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5181,13 +5181,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>359473</v>
+        <v>361639</v>
       </c>
       <c r="D118" t="n">
-        <v>99554</v>
+        <v>99777</v>
       </c>
       <c r="E118" t="n">
-        <v>1033426638</v>
+        <v>1045141026</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5222,13 +5222,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1369</v>
+        <v>1387</v>
       </c>
       <c r="D119" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E119" t="n">
-        <v>10925327</v>
+        <v>11070378</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5263,13 +5263,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D120" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E120" t="n">
-        <v>1485177</v>
+        <v>1521904</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5304,13 +5304,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>332478</v>
+        <v>334269</v>
       </c>
       <c r="D121" t="n">
-        <v>83867</v>
+        <v>84052</v>
       </c>
       <c r="E121" t="n">
-        <v>897523841</v>
+        <v>906401896</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4285</v>
+        <v>4306</v>
       </c>
       <c r="D123" t="n">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="E123" t="n">
-        <v>7542312</v>
+        <v>7585283</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5468,13 +5468,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>13527</v>
+        <v>13619</v>
       </c>
       <c r="D125" t="n">
-        <v>3609</v>
+        <v>3619</v>
       </c>
       <c r="E125" t="n">
-        <v>33162717</v>
+        <v>33545110</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5591,13 +5591,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>56898</v>
+        <v>57013</v>
       </c>
       <c r="D128" t="n">
-        <v>17195</v>
+        <v>17198</v>
       </c>
       <c r="E128" t="n">
-        <v>80000762</v>
+        <v>80252010</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>16959</v>
+        <v>16987</v>
       </c>
       <c r="D132" t="n">
-        <v>5875</v>
+        <v>5876</v>
       </c>
       <c r="E132" t="n">
-        <v>29636137</v>
+        <v>29771406</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>4716</v>
+        <v>4728</v>
       </c>
       <c r="D134" t="n">
         <v>1516</v>
       </c>
       <c r="E134" t="n">
-        <v>7917466</v>
+        <v>7942309</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D138" t="n">
         <v>164</v>
       </c>
       <c r="E138" t="n">
-        <v>1014739</v>
+        <v>1026239</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>26048</v>
+        <v>26141</v>
       </c>
       <c r="D139" t="n">
-        <v>6972</v>
+        <v>6973</v>
       </c>
       <c r="E139" t="n">
-        <v>39481249</v>
+        <v>39787170</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6165,13 +6165,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>10871</v>
+        <v>10913</v>
       </c>
       <c r="D142" t="n">
-        <v>3100</v>
+        <v>3107</v>
       </c>
       <c r="E142" t="n">
-        <v>23976013</v>
+        <v>24163657</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6247,13 +6247,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7699</v>
+        <v>7730</v>
       </c>
       <c r="D144" t="n">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="E144" t="n">
-        <v>15476601</v>
+        <v>15601193</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6370,13 +6370,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>34823</v>
+        <v>34917</v>
       </c>
       <c r="D147" t="n">
-        <v>5350</v>
+        <v>5351</v>
       </c>
       <c r="E147" t="n">
-        <v>86239238</v>
+        <v>86717999</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3360</v>
+        <v>3368</v>
       </c>
       <c r="D148" t="n">
         <v>657</v>
       </c>
       <c r="E148" t="n">
-        <v>8155229</v>
+        <v>8207403</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6452,13 +6452,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D149" t="n">
         <v>86</v>
       </c>
       <c r="E149" t="n">
-        <v>1084152</v>
+        <v>1104152</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>133162</v>
+        <v>134027</v>
       </c>
       <c r="D152" t="n">
-        <v>41450</v>
+        <v>41522</v>
       </c>
       <c r="E152" t="n">
-        <v>209412481</v>
+        <v>211850518</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6616,13 +6616,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D153" t="n">
         <v>15</v>
       </c>
       <c r="E153" t="n">
-        <v>79574</v>
+        <v>87569</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1482</v>
+        <v>1497</v>
       </c>
       <c r="D156" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E156" t="n">
-        <v>6013800</v>
+        <v>6111805</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6821,13 +6821,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>56466</v>
+        <v>56915</v>
       </c>
       <c r="D158" t="n">
-        <v>17614</v>
+        <v>17659</v>
       </c>
       <c r="E158" t="n">
-        <v>165785957</v>
+        <v>168437669</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6862,13 +6862,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D159" t="n">
         <v>31</v>
       </c>
       <c r="E159" t="n">
-        <v>666540</v>
+        <v>668040</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -6903,13 +6903,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>22621</v>
+        <v>22782</v>
       </c>
       <c r="D160" t="n">
-        <v>6696</v>
+        <v>6719</v>
       </c>
       <c r="E160" t="n">
-        <v>66756757</v>
+        <v>67583142</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6985,13 +6985,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1735</v>
+        <v>1745</v>
       </c>
       <c r="D162" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E162" t="n">
-        <v>3243861</v>
+        <v>3283476</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3283</v>
+        <v>3307</v>
       </c>
       <c r="D163" t="n">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="E163" t="n">
-        <v>7782998</v>
+        <v>7846279</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7067,13 +7067,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>354045</v>
+        <v>355649</v>
       </c>
       <c r="D164" t="n">
-        <v>111793</v>
+        <v>111901</v>
       </c>
       <c r="E164" t="n">
-        <v>528548497</v>
+        <v>532470811</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7313,13 +7313,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1714</v>
+        <v>1721</v>
       </c>
       <c r="D170" t="n">
         <v>515</v>
       </c>
       <c r="E170" t="n">
-        <v>5995872</v>
+        <v>6022469</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>140144</v>
+        <v>141048</v>
       </c>
       <c r="D172" t="n">
-        <v>44407</v>
+        <v>44497</v>
       </c>
       <c r="E172" t="n">
-        <v>397471021</v>
+        <v>402528775</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7436,13 +7436,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D173" t="n">
         <v>93</v>
       </c>
       <c r="E173" t="n">
-        <v>1758850</v>
+        <v>1774829</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7518,13 +7518,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>56074</v>
+        <v>56428</v>
       </c>
       <c r="D175" t="n">
-        <v>17004</v>
+        <v>17054</v>
       </c>
       <c r="E175" t="n">
-        <v>158846229</v>
+        <v>160583955</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7641,13 +7641,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>7415</v>
+        <v>7459</v>
       </c>
       <c r="D178" t="n">
-        <v>3096</v>
+        <v>3106</v>
       </c>
       <c r="E178" t="n">
-        <v>15271470</v>
+        <v>15452244</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7723,13 +7723,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>9298</v>
+        <v>9370</v>
       </c>
       <c r="D180" t="n">
-        <v>2569</v>
+        <v>2575</v>
       </c>
       <c r="E180" t="n">
-        <v>20733120</v>
+        <v>21028323</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7805,13 +7805,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>403571</v>
+        <v>405754</v>
       </c>
       <c r="D182" t="n">
-        <v>123321</v>
+        <v>123480</v>
       </c>
       <c r="E182" t="n">
-        <v>589586785</v>
+        <v>594234809</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -7846,13 +7846,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D183" t="n">
         <v>70</v>
       </c>
       <c r="E183" t="n">
-        <v>352422</v>
+        <v>353505</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D184" t="n">
         <v>127</v>
       </c>
       <c r="E184" t="n">
-        <v>856798</v>
+        <v>879852</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -8051,13 +8051,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1131</v>
+        <v>1148</v>
       </c>
       <c r="D188" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E188" t="n">
-        <v>3895338</v>
+        <v>4001936</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>156851</v>
+        <v>157943</v>
       </c>
       <c r="D190" t="n">
-        <v>47764</v>
+        <v>47848</v>
       </c>
       <c r="E190" t="n">
-        <v>439357731</v>
+        <v>445094762</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -8174,13 +8174,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D191" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E191" t="n">
-        <v>1922450</v>
+        <v>1976116</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -8256,13 +8256,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>87646</v>
+        <v>88195</v>
       </c>
       <c r="D193" t="n">
-        <v>25454</v>
+        <v>25505</v>
       </c>
       <c r="E193" t="n">
-        <v>237547522</v>
+        <v>240352966</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -8297,13 +8297,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D194" t="n">
         <v>17</v>
       </c>
       <c r="E194" t="n">
-        <v>160861</v>
+        <v>170861</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6723</v>
+        <v>6754</v>
       </c>
       <c r="D196" t="n">
-        <v>2697</v>
+        <v>2701</v>
       </c>
       <c r="E196" t="n">
-        <v>12181835</v>
+        <v>12275837</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8461,13 +8461,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D198" t="n">
         <v>24</v>
       </c>
       <c r="E198" t="n">
-        <v>241522</v>
+        <v>251522</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -8502,13 +8502,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>11782</v>
+        <v>11878</v>
       </c>
       <c r="D199" t="n">
-        <v>3075</v>
+        <v>3083</v>
       </c>
       <c r="E199" t="n">
-        <v>26216025</v>
+        <v>26607254</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -8584,13 +8584,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>159178</v>
+        <v>160003</v>
       </c>
       <c r="D201" t="n">
-        <v>51021</v>
+        <v>51091</v>
       </c>
       <c r="E201" t="n">
-        <v>244421066</v>
+        <v>246363024</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -8748,13 +8748,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1331</v>
+        <v>1347</v>
       </c>
       <c r="D205" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E205" t="n">
-        <v>5518764</v>
+        <v>5607052</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8789,13 +8789,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>80763</v>
+        <v>81352</v>
       </c>
       <c r="D206" t="n">
-        <v>26167</v>
+        <v>26238</v>
       </c>
       <c r="E206" t="n">
-        <v>232791795</v>
+        <v>236077599</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8830,13 +8830,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D207" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E207" t="n">
-        <v>961035</v>
+        <v>981701</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -8912,13 +8912,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>21747</v>
+        <v>21885</v>
       </c>
       <c r="D209" t="n">
-        <v>6645</v>
+        <v>6673</v>
       </c>
       <c r="E209" t="n">
-        <v>65158994</v>
+        <v>65869339</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -8994,13 +8994,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2620</v>
+        <v>2632</v>
       </c>
       <c r="D211" t="n">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="E211" t="n">
-        <v>5257450</v>
+        <v>5286908</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -9076,13 +9076,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4685</v>
+        <v>4718</v>
       </c>
       <c r="D213" t="n">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="E213" t="n">
-        <v>11272080</v>
+        <v>11392939</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9117,13 +9117,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>406365</v>
+        <v>408505</v>
       </c>
       <c r="D214" t="n">
-        <v>117438</v>
+        <v>117592</v>
       </c>
       <c r="E214" t="n">
-        <v>613655013</v>
+        <v>618228838</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -9158,13 +9158,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D215" t="n">
         <v>81</v>
       </c>
       <c r="E215" t="n">
-        <v>464594</v>
+        <v>467731</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -9199,13 +9199,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D216" t="n">
         <v>126</v>
       </c>
       <c r="E216" t="n">
-        <v>1052683</v>
+        <v>1071639</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -9240,13 +9240,13 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D217" t="n">
         <v>11</v>
       </c>
       <c r="E217" t="n">
-        <v>127553</v>
+        <v>137553</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -9363,13 +9363,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1910</v>
+        <v>1920</v>
       </c>
       <c r="D220" t="n">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="E220" t="n">
-        <v>8030162</v>
+        <v>8076944</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -9445,13 +9445,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>163629</v>
+        <v>164712</v>
       </c>
       <c r="D222" t="n">
-        <v>47696</v>
+        <v>47804</v>
       </c>
       <c r="E222" t="n">
-        <v>474209494</v>
+        <v>479925068</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -9486,13 +9486,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D223" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E223" t="n">
-        <v>1665995</v>
+        <v>1710209</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -9568,13 +9568,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>116514</v>
+        <v>117264</v>
       </c>
       <c r="D225" t="n">
-        <v>31929</v>
+        <v>32020</v>
       </c>
       <c r="E225" t="n">
-        <v>325312192</v>
+        <v>328944793</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -9691,13 +9691,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3734</v>
+        <v>3755</v>
       </c>
       <c r="D228" t="n">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="E228" t="n">
-        <v>6992030</v>
+        <v>7108596</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -9814,13 +9814,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>9530</v>
+        <v>9590</v>
       </c>
       <c r="D231" t="n">
-        <v>2415</v>
+        <v>2421</v>
       </c>
       <c r="E231" t="n">
-        <v>22208463</v>
+        <v>22456566</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>504271</v>
+        <v>505810</v>
       </c>
       <c r="D2" t="n">
-        <v>150682</v>
+        <v>150810</v>
       </c>
       <c r="E2" t="n">
-        <v>783068210</v>
+        <v>786524177</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D4" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E4" t="n">
-        <v>1587302</v>
+        <v>1597794</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1864</v>
+        <v>1877</v>
       </c>
       <c r="D8" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="E8" t="n">
-        <v>7197164</v>
+        <v>7268424</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>199693</v>
+        <v>200425</v>
       </c>
       <c r="D10" t="n">
-        <v>61119</v>
+        <v>61191</v>
       </c>
       <c r="E10" t="n">
-        <v>593435703</v>
+        <v>597645007</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D11" t="n">
         <v>171</v>
       </c>
       <c r="E11" t="n">
-        <v>3388511</v>
+        <v>3401511</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>104855</v>
+        <v>105238</v>
       </c>
       <c r="D13" t="n">
-        <v>30842</v>
+        <v>30893</v>
       </c>
       <c r="E13" t="n">
-        <v>309302023</v>
+        <v>311138520</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" t="n">
         <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>148693</v>
+        <v>149993</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5786</v>
+        <v>5820</v>
       </c>
       <c r="D15" t="n">
-        <v>2540</v>
+        <v>2546</v>
       </c>
       <c r="E15" t="n">
-        <v>10663147</v>
+        <v>10774582</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13647</v>
+        <v>13707</v>
       </c>
       <c r="D17" t="n">
-        <v>3611</v>
+        <v>3621</v>
       </c>
       <c r="E17" t="n">
-        <v>33257408</v>
+        <v>33491309</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>119133</v>
+        <v>119489</v>
       </c>
       <c r="D19" t="n">
-        <v>36901</v>
+        <v>36935</v>
       </c>
       <c r="E19" t="n">
-        <v>183417352</v>
+        <v>184273019</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D24" t="n">
         <v>157</v>
       </c>
       <c r="E24" t="n">
-        <v>1867387</v>
+        <v>1874053</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1368,13 +1368,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>53645</v>
+        <v>53850</v>
       </c>
       <c r="D25" t="n">
-        <v>16824</v>
+        <v>16846</v>
       </c>
       <c r="E25" t="n">
-        <v>155345711</v>
+        <v>156448501</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>19961</v>
+        <v>20050</v>
       </c>
       <c r="D28" t="n">
-        <v>6101</v>
+        <v>6112</v>
       </c>
       <c r="E28" t="n">
-        <v>57527506</v>
+        <v>57923319</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2345</v>
+        <v>2360</v>
       </c>
       <c r="D30" t="n">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="E30" t="n">
-        <v>4738040</v>
+        <v>4771938</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3522</v>
+        <v>3541</v>
       </c>
       <c r="D32" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="E32" t="n">
-        <v>8353762</v>
+        <v>8446235</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>145178</v>
+        <v>145564</v>
       </c>
       <c r="D33" t="n">
-        <v>46994</v>
+        <v>47032</v>
       </c>
       <c r="E33" t="n">
-        <v>228013611</v>
+        <v>229025255</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2136</v>
+        <v>2149</v>
       </c>
       <c r="D36" t="n">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="E36" t="n">
-        <v>8770871</v>
+        <v>8853852</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>74942</v>
+        <v>75196</v>
       </c>
       <c r="D38" t="n">
-        <v>23384</v>
+        <v>23424</v>
       </c>
       <c r="E38" t="n">
-        <v>225377854</v>
+        <v>226873730</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>16256</v>
+        <v>16330</v>
       </c>
       <c r="D41" t="n">
-        <v>5130</v>
+        <v>5140</v>
       </c>
       <c r="E41" t="n">
-        <v>50902601</v>
+        <v>51300718</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1936</v>
+        <v>1944</v>
       </c>
       <c r="D43" t="n">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E43" t="n">
-        <v>3522898</v>
+        <v>3543356</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4421</v>
+        <v>4438</v>
       </c>
       <c r="D44" t="n">
-        <v>1231</v>
+        <v>1236</v>
       </c>
       <c r="E44" t="n">
-        <v>10954548</v>
+        <v>11008638</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2188,13 +2188,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>104614</v>
+        <v>104903</v>
       </c>
       <c r="D45" t="n">
-        <v>32676</v>
+        <v>32703</v>
       </c>
       <c r="E45" t="n">
-        <v>162687263</v>
+        <v>163387842</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="D49" t="n">
         <v>234</v>
       </c>
       <c r="E49" t="n">
-        <v>2750137</v>
+        <v>2777280</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>45971</v>
+        <v>46128</v>
       </c>
       <c r="D50" t="n">
-        <v>14389</v>
+        <v>14401</v>
       </c>
       <c r="E50" t="n">
-        <v>128874362</v>
+        <v>129791908</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2516,13 +2516,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>18681</v>
+        <v>18775</v>
       </c>
       <c r="D53" t="n">
-        <v>5624</v>
+        <v>5642</v>
       </c>
       <c r="E53" t="n">
-        <v>51246795</v>
+        <v>51633557</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1967</v>
+        <v>1980</v>
       </c>
       <c r="D54" t="n">
         <v>776</v>
       </c>
       <c r="E54" t="n">
-        <v>3821300</v>
+        <v>3880436</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2925</v>
+        <v>2940</v>
       </c>
       <c r="D56" t="n">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="E56" t="n">
-        <v>6840921</v>
+        <v>6917228</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>31561</v>
+        <v>31681</v>
       </c>
       <c r="D58" t="n">
-        <v>9204</v>
+        <v>9207</v>
       </c>
       <c r="E58" t="n">
-        <v>52315737</v>
+        <v>52607053</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2844,13 +2844,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D61" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E61" t="n">
-        <v>344036</v>
+        <v>356700</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2885,13 +2885,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>13914</v>
+        <v>14002</v>
       </c>
       <c r="D62" t="n">
-        <v>4002</v>
+        <v>4009</v>
       </c>
       <c r="E62" t="n">
-        <v>47360205</v>
+        <v>47848639</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9252</v>
+        <v>9292</v>
       </c>
       <c r="D64" t="n">
-        <v>2652</v>
+        <v>2661</v>
       </c>
       <c r="E64" t="n">
-        <v>28309900</v>
+        <v>28503440</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D65" t="n">
         <v>241</v>
       </c>
       <c r="E65" t="n">
-        <v>1473800</v>
+        <v>1476900</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3049,13 +3049,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D66" t="n">
         <v>135</v>
       </c>
       <c r="E66" t="n">
-        <v>1223686</v>
+        <v>1244783</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3090,13 +3090,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>219905</v>
+        <v>220757</v>
       </c>
       <c r="D67" t="n">
-        <v>69054</v>
+        <v>69170</v>
       </c>
       <c r="E67" t="n">
-        <v>351192233</v>
+        <v>353211235</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3131,13 +3131,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" t="n">
         <v>91</v>
       </c>
       <c r="E68" t="n">
-        <v>717874</v>
+        <v>720874</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3172,13 +3172,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D69" t="n">
         <v>44</v>
       </c>
       <c r="E69" t="n">
-        <v>392847</v>
+        <v>402847</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D71" t="n">
         <v>288</v>
       </c>
       <c r="E71" t="n">
-        <v>3418356</v>
+        <v>3428356</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3336,13 +3336,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>105313</v>
+        <v>105746</v>
       </c>
       <c r="D73" t="n">
-        <v>33216</v>
+        <v>33280</v>
       </c>
       <c r="E73" t="n">
-        <v>302252012</v>
+        <v>304366742</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D74" t="n">
         <v>102</v>
       </c>
       <c r="E74" t="n">
-        <v>2500725</v>
+        <v>2502225</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3418,13 +3418,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D75" t="n">
         <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>245241</v>
+        <v>255907</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3459,13 +3459,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>50288</v>
+        <v>50499</v>
       </c>
       <c r="D76" t="n">
-        <v>15518</v>
+        <v>15558</v>
       </c>
       <c r="E76" t="n">
-        <v>144568628</v>
+        <v>145482380</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3541,13 +3541,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D78" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E78" t="n">
-        <v>635648</v>
+        <v>645648</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>9503</v>
+        <v>9680</v>
       </c>
       <c r="D79" t="n">
-        <v>5275</v>
+        <v>5378</v>
       </c>
       <c r="E79" t="n">
-        <v>37989222</v>
+        <v>39006875</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3623,13 +3623,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5462</v>
+        <v>5489</v>
       </c>
       <c r="D80" t="n">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="E80" t="n">
-        <v>13480359</v>
+        <v>13595350</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>47046</v>
+        <v>47192</v>
       </c>
       <c r="D81" t="n">
-        <v>11939</v>
+        <v>11943</v>
       </c>
       <c r="E81" t="n">
-        <v>71847263</v>
+        <v>72192915</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3787,13 +3787,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>11295</v>
+        <v>11320</v>
       </c>
       <c r="D84" t="n">
         <v>3157</v>
       </c>
       <c r="E84" t="n">
-        <v>21342527</v>
+        <v>21400424</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>10582</v>
+        <v>10598</v>
       </c>
       <c r="D86" t="n">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="E86" t="n">
-        <v>18702087</v>
+        <v>18774221</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3910,13 +3910,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="D87" t="n">
         <v>196</v>
       </c>
       <c r="E87" t="n">
-        <v>1102220</v>
+        <v>1109720</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3951,13 +3951,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="D88" t="n">
         <v>188</v>
       </c>
       <c r="E88" t="n">
-        <v>1163093</v>
+        <v>1167593</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3992,13 +3992,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>19306</v>
+        <v>19353</v>
       </c>
       <c r="D89" t="n">
-        <v>3636</v>
+        <v>3639</v>
       </c>
       <c r="E89" t="n">
-        <v>39659369</v>
+        <v>39759790</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4033,13 +4033,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4350</v>
+        <v>4361</v>
       </c>
       <c r="D90" t="n">
         <v>882</v>
       </c>
       <c r="E90" t="n">
-        <v>9871477</v>
+        <v>9897303</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4115,13 +4115,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6291</v>
+        <v>6300</v>
       </c>
       <c r="D92" t="n">
         <v>1217</v>
       </c>
       <c r="E92" t="n">
-        <v>14350479</v>
+        <v>14376350</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4238,13 +4238,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D95" t="n">
         <v>76</v>
       </c>
       <c r="E95" t="n">
-        <v>829749</v>
+        <v>834249</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4279,13 +4279,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>217296</v>
+        <v>217932</v>
       </c>
       <c r="D96" t="n">
-        <v>66197</v>
+        <v>66246</v>
       </c>
       <c r="E96" t="n">
-        <v>330021675</v>
+        <v>331377919</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4484,13 +4484,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2035</v>
+        <v>2052</v>
       </c>
       <c r="D101" t="n">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E101" t="n">
-        <v>7377137</v>
+        <v>7484980</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4566,13 +4566,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>86676</v>
+        <v>87003</v>
       </c>
       <c r="D103" t="n">
-        <v>26758</v>
+        <v>26793</v>
       </c>
       <c r="E103" t="n">
-        <v>243727921</v>
+        <v>245526729</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D104" t="n">
         <v>90</v>
       </c>
       <c r="E104" t="n">
-        <v>1800324</v>
+        <v>1810324</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4648,13 +4648,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D105" t="n">
         <v>10</v>
       </c>
       <c r="E105" t="n">
-        <v>159190</v>
+        <v>169190</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4689,13 +4689,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>46929</v>
+        <v>47083</v>
       </c>
       <c r="D106" t="n">
-        <v>13517</v>
+        <v>13533</v>
       </c>
       <c r="E106" t="n">
-        <v>129846223</v>
+        <v>130540436</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4771,13 +4771,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2184</v>
+        <v>2198</v>
       </c>
       <c r="D108" t="n">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="E108" t="n">
-        <v>5022860</v>
+        <v>5071877</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4452</v>
+        <v>4476</v>
       </c>
       <c r="D109" t="n">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="E109" t="n">
-        <v>10543033</v>
+        <v>10615440</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4894,13 +4894,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>868807</v>
+        <v>870834</v>
       </c>
       <c r="D111" t="n">
-        <v>213575</v>
+        <v>213685</v>
       </c>
       <c r="E111" t="n">
-        <v>1425199155</v>
+        <v>1430311155</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4935,13 +4935,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D112" t="n">
         <v>42</v>
       </c>
       <c r="E112" t="n">
-        <v>321271</v>
+        <v>331937</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4976,13 +4976,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D113" t="n">
         <v>117</v>
       </c>
       <c r="E113" t="n">
-        <v>1282075</v>
+        <v>1292075</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5099,13 +5099,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3593</v>
+        <v>3619</v>
       </c>
       <c r="D116" t="n">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="E116" t="n">
-        <v>20081093</v>
+        <v>20301483</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5181,13 +5181,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>361639</v>
+        <v>363023</v>
       </c>
       <c r="D118" t="n">
-        <v>99777</v>
+        <v>99908</v>
       </c>
       <c r="E118" t="n">
-        <v>1045141026</v>
+        <v>1052780794</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5222,13 +5222,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1387</v>
+        <v>1394</v>
       </c>
       <c r="D119" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E119" t="n">
-        <v>11070378</v>
+        <v>11130759</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5304,13 +5304,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>334269</v>
+        <v>335396</v>
       </c>
       <c r="D121" t="n">
-        <v>84052</v>
+        <v>84157</v>
       </c>
       <c r="E121" t="n">
-        <v>906401896</v>
+        <v>912007927</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4306</v>
+        <v>4317</v>
       </c>
       <c r="D123" t="n">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="E123" t="n">
-        <v>7585283</v>
+        <v>7613136</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5468,13 +5468,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>13619</v>
+        <v>13666</v>
       </c>
       <c r="D125" t="n">
-        <v>3619</v>
+        <v>3628</v>
       </c>
       <c r="E125" t="n">
-        <v>33545110</v>
+        <v>33728946</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5591,13 +5591,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>57013</v>
+        <v>57073</v>
       </c>
       <c r="D128" t="n">
-        <v>17198</v>
+        <v>17199</v>
       </c>
       <c r="E128" t="n">
-        <v>80252010</v>
+        <v>80354591</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>16987</v>
+        <v>17010</v>
       </c>
       <c r="D132" t="n">
         <v>5876</v>
       </c>
       <c r="E132" t="n">
-        <v>29771406</v>
+        <v>29882059</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>4728</v>
+        <v>4733</v>
       </c>
       <c r="D134" t="n">
         <v>1516</v>
       </c>
       <c r="E134" t="n">
-        <v>7942309</v>
+        <v>7949545</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5960,13 +5960,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D137" t="n">
         <v>166</v>
       </c>
       <c r="E137" t="n">
-        <v>711133</v>
+        <v>712504</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>26141</v>
+        <v>26243</v>
       </c>
       <c r="D139" t="n">
-        <v>6973</v>
+        <v>6975</v>
       </c>
       <c r="E139" t="n">
-        <v>39787170</v>
+        <v>40013963</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6124,13 +6124,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D141" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E141" t="n">
-        <v>122020</v>
+        <v>132020</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -6165,13 +6165,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>10913</v>
+        <v>10952</v>
       </c>
       <c r="D142" t="n">
-        <v>3107</v>
+        <v>3114</v>
       </c>
       <c r="E142" t="n">
-        <v>24163657</v>
+        <v>24356755</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6247,13 +6247,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7730</v>
+        <v>7756</v>
       </c>
       <c r="D144" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E144" t="n">
-        <v>15601193</v>
+        <v>15716399</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D145" t="n">
         <v>123</v>
       </c>
       <c r="E145" t="n">
-        <v>618952</v>
+        <v>620363</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6329,13 +6329,13 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D146" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E146" t="n">
-        <v>942251</v>
+        <v>945251</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -6370,13 +6370,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>34917</v>
+        <v>35002</v>
       </c>
       <c r="D147" t="n">
-        <v>5351</v>
+        <v>5353</v>
       </c>
       <c r="E147" t="n">
-        <v>86717999</v>
+        <v>87259622</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3368</v>
+        <v>3372</v>
       </c>
       <c r="D148" t="n">
         <v>657</v>
       </c>
       <c r="E148" t="n">
-        <v>8207403</v>
+        <v>8236403</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6493,13 +6493,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D150" t="n">
         <v>17</v>
       </c>
       <c r="E150" t="n">
-        <v>265095</v>
+        <v>275095</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D151" t="n">
         <v>37</v>
       </c>
       <c r="E151" t="n">
-        <v>520986</v>
+        <v>523986</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>134027</v>
+        <v>134465</v>
       </c>
       <c r="D152" t="n">
-        <v>41522</v>
+        <v>41566</v>
       </c>
       <c r="E152" t="n">
-        <v>211850518</v>
+        <v>212888506</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6616,13 +6616,13 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D153" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E153" t="n">
-        <v>87569</v>
+        <v>88687</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1497</v>
+        <v>1509</v>
       </c>
       <c r="D156" t="n">
         <v>459</v>
       </c>
       <c r="E156" t="n">
-        <v>6111805</v>
+        <v>6198274</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6821,13 +6821,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>56915</v>
+        <v>57153</v>
       </c>
       <c r="D158" t="n">
-        <v>17659</v>
+        <v>17690</v>
       </c>
       <c r="E158" t="n">
-        <v>168437669</v>
+        <v>169758026</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6903,13 +6903,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>22782</v>
+        <v>22852</v>
       </c>
       <c r="D160" t="n">
-        <v>6719</v>
+        <v>6728</v>
       </c>
       <c r="E160" t="n">
-        <v>67583142</v>
+        <v>67947264</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6985,13 +6985,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1745</v>
+        <v>1752</v>
       </c>
       <c r="D162" t="n">
         <v>644</v>
       </c>
       <c r="E162" t="n">
-        <v>3283476</v>
+        <v>3302095</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3307</v>
+        <v>3324</v>
       </c>
       <c r="D163" t="n">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="E163" t="n">
-        <v>7846279</v>
+        <v>7890843</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7067,13 +7067,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>355649</v>
+        <v>356626</v>
       </c>
       <c r="D164" t="n">
-        <v>111901</v>
+        <v>111995</v>
       </c>
       <c r="E164" t="n">
-        <v>532470811</v>
+        <v>534728812</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7313,13 +7313,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1721</v>
+        <v>1726</v>
       </c>
       <c r="D170" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E170" t="n">
-        <v>6022469</v>
+        <v>6046969</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>141048</v>
+        <v>141567</v>
       </c>
       <c r="D172" t="n">
-        <v>44497</v>
+        <v>44556</v>
       </c>
       <c r="E172" t="n">
-        <v>402528775</v>
+        <v>405239001</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7436,13 +7436,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D173" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E173" t="n">
-        <v>1774829</v>
+        <v>1804829</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7518,13 +7518,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>56428</v>
+        <v>56600</v>
       </c>
       <c r="D175" t="n">
-        <v>17054</v>
+        <v>17081</v>
       </c>
       <c r="E175" t="n">
-        <v>160583955</v>
+        <v>161467640</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7641,13 +7641,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>7459</v>
+        <v>7487</v>
       </c>
       <c r="D178" t="n">
-        <v>3106</v>
+        <v>3112</v>
       </c>
       <c r="E178" t="n">
-        <v>15452244</v>
+        <v>15589341</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7723,13 +7723,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>9370</v>
+        <v>9396</v>
       </c>
       <c r="D180" t="n">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="E180" t="n">
-        <v>21028323</v>
+        <v>21138204</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7805,13 +7805,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>405754</v>
+        <v>406927</v>
       </c>
       <c r="D182" t="n">
-        <v>123480</v>
+        <v>123577</v>
       </c>
       <c r="E182" t="n">
-        <v>594234809</v>
+        <v>596726163</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -7846,13 +7846,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D183" t="n">
         <v>70</v>
       </c>
       <c r="E183" t="n">
-        <v>353505</v>
+        <v>359125</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -8051,13 +8051,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D188" t="n">
         <v>336</v>
       </c>
       <c r="E188" t="n">
-        <v>4001936</v>
+        <v>4011936</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>157943</v>
+        <v>158486</v>
       </c>
       <c r="D190" t="n">
-        <v>47848</v>
+        <v>47899</v>
       </c>
       <c r="E190" t="n">
-        <v>445094762</v>
+        <v>447953954</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -8174,13 +8174,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D191" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E191" t="n">
-        <v>1976116</v>
+        <v>1995032</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -8256,13 +8256,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>88195</v>
+        <v>88515</v>
       </c>
       <c r="D193" t="n">
-        <v>25505</v>
+        <v>25543</v>
       </c>
       <c r="E193" t="n">
-        <v>240352966</v>
+        <v>241844450</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6754</v>
+        <v>6789</v>
       </c>
       <c r="D196" t="n">
-        <v>2701</v>
+        <v>2706</v>
       </c>
       <c r="E196" t="n">
-        <v>12275837</v>
+        <v>12372863</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8502,13 +8502,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>11878</v>
+        <v>11926</v>
       </c>
       <c r="D199" t="n">
-        <v>3083</v>
+        <v>3091</v>
       </c>
       <c r="E199" t="n">
-        <v>26607254</v>
+        <v>26802760</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -8584,13 +8584,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>160003</v>
+        <v>160424</v>
       </c>
       <c r="D201" t="n">
-        <v>51091</v>
+        <v>51126</v>
       </c>
       <c r="E201" t="n">
-        <v>246363024</v>
+        <v>247345914</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -8748,13 +8748,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1347</v>
+        <v>1354</v>
       </c>
       <c r="D205" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E205" t="n">
-        <v>5607052</v>
+        <v>5643577</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8789,13 +8789,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>81352</v>
+        <v>81620</v>
       </c>
       <c r="D206" t="n">
-        <v>26238</v>
+        <v>26286</v>
       </c>
       <c r="E206" t="n">
-        <v>236077599</v>
+        <v>237499170</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8830,13 +8830,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D207" t="n">
         <v>40</v>
       </c>
       <c r="E207" t="n">
-        <v>981701</v>
+        <v>991701</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -8912,13 +8912,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>21885</v>
+        <v>21976</v>
       </c>
       <c r="D209" t="n">
-        <v>6673</v>
+        <v>6693</v>
       </c>
       <c r="E209" t="n">
-        <v>65869339</v>
+        <v>66371836</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -8994,13 +8994,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2632</v>
+        <v>2649</v>
       </c>
       <c r="D211" t="n">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="E211" t="n">
-        <v>5286908</v>
+        <v>5352995</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -9076,13 +9076,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4718</v>
+        <v>4740</v>
       </c>
       <c r="D213" t="n">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E213" t="n">
-        <v>11392939</v>
+        <v>11505714</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9117,13 +9117,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>408505</v>
+        <v>409802</v>
       </c>
       <c r="D214" t="n">
-        <v>117592</v>
+        <v>117693</v>
       </c>
       <c r="E214" t="n">
-        <v>618228838</v>
+        <v>620972635</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -9158,13 +9158,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D215" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E215" t="n">
-        <v>467731</v>
+        <v>474938</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -9199,13 +9199,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D216" t="n">
         <v>126</v>
       </c>
       <c r="E216" t="n">
-        <v>1071639</v>
+        <v>1086034</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -9363,13 +9363,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1920</v>
+        <v>1934</v>
       </c>
       <c r="D220" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E220" t="n">
-        <v>8076944</v>
+        <v>8182542</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -9445,13 +9445,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>164712</v>
+        <v>165326</v>
       </c>
       <c r="D222" t="n">
-        <v>47804</v>
+        <v>47874</v>
       </c>
       <c r="E222" t="n">
-        <v>479925068</v>
+        <v>483133639</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -9486,13 +9486,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D223" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E223" t="n">
-        <v>1710209</v>
+        <v>1720209</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -9568,13 +9568,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>117264</v>
+        <v>117685</v>
       </c>
       <c r="D225" t="n">
-        <v>32020</v>
+        <v>32069</v>
       </c>
       <c r="E225" t="n">
-        <v>328944793</v>
+        <v>331031589</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -9691,13 +9691,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3755</v>
+        <v>3766</v>
       </c>
       <c r="D228" t="n">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="E228" t="n">
-        <v>7108596</v>
+        <v>7137948</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -9732,13 +9732,13 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D229" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E229" t="n">
-        <v>155559</v>
+        <v>163831</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -9773,13 +9773,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D230" t="n">
         <v>4</v>
       </c>
       <c r="E230" t="n">
-        <v>39842</v>
+        <v>40846</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -9814,13 +9814,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>9590</v>
+        <v>9627</v>
       </c>
       <c r="D231" t="n">
-        <v>2421</v>
+        <v>2427</v>
       </c>
       <c r="E231" t="n">
-        <v>22456566</v>
+        <v>22643615</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>505810</v>
+        <v>509465</v>
       </c>
       <c r="D2" t="n">
-        <v>150810</v>
+        <v>150951</v>
       </c>
       <c r="E2" t="n">
-        <v>786524177</v>
+        <v>795210352</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D3" t="n">
         <v>126</v>
       </c>
       <c r="E3" t="n">
-        <v>640423</v>
+        <v>666565</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D4" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E4" t="n">
-        <v>1597794</v>
+        <v>1651293</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>339092</v>
+        <v>348826</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1877</v>
+        <v>1909</v>
       </c>
       <c r="D8" t="n">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E8" t="n">
-        <v>7268424</v>
+        <v>7521773</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>323223</v>
+        <v>415439</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>200425</v>
+        <v>202445</v>
       </c>
       <c r="D10" t="n">
-        <v>61191</v>
+        <v>61317</v>
       </c>
       <c r="E10" t="n">
-        <v>597645007</v>
+        <v>614001439</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="D11" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E11" t="n">
-        <v>3401511</v>
+        <v>3548687</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>170238</v>
+        <v>296778</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>105238</v>
+        <v>106032</v>
       </c>
       <c r="D13" t="n">
-        <v>30893</v>
+        <v>30953</v>
       </c>
       <c r="E13" t="n">
-        <v>311138520</v>
+        <v>317144337</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>149993</v>
+        <v>181493</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5820</v>
+        <v>5864</v>
       </c>
       <c r="D15" t="n">
-        <v>2546</v>
+        <v>2553</v>
       </c>
       <c r="E15" t="n">
-        <v>10774582</v>
+        <v>10855301</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13707</v>
+        <v>13810</v>
       </c>
       <c r="D17" t="n">
-        <v>3621</v>
+        <v>3635</v>
       </c>
       <c r="E17" t="n">
-        <v>33491309</v>
+        <v>34102568</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>119489</v>
+        <v>120370</v>
       </c>
       <c r="D19" t="n">
-        <v>36935</v>
+        <v>36961</v>
       </c>
       <c r="E19" t="n">
-        <v>184273019</v>
+        <v>186497234</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1204,13 +1204,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" t="n">
         <v>22</v>
       </c>
       <c r="E21" t="n">
-        <v>127198</v>
+        <v>137198</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="D24" t="n">
         <v>157</v>
       </c>
       <c r="E24" t="n">
-        <v>1874053</v>
+        <v>1934975</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1368,13 +1368,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>53850</v>
+        <v>54351</v>
       </c>
       <c r="D25" t="n">
-        <v>16846</v>
+        <v>16869</v>
       </c>
       <c r="E25" t="n">
-        <v>156448501</v>
+        <v>160471850</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D26" t="n">
         <v>46</v>
       </c>
       <c r="E26" t="n">
-        <v>1010840</v>
+        <v>1020840</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20050</v>
+        <v>20211</v>
       </c>
       <c r="D28" t="n">
-        <v>6112</v>
+        <v>6128</v>
       </c>
       <c r="E28" t="n">
-        <v>57923319</v>
+        <v>59287479</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1532,13 +1532,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>53633</v>
+        <v>66181</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2360</v>
+        <v>2377</v>
       </c>
       <c r="D30" t="n">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E30" t="n">
-        <v>4771938</v>
+        <v>4845905</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D31" t="n">
         <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>50721</v>
+        <v>53721</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3541</v>
+        <v>3551</v>
       </c>
       <c r="D32" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E32" t="n">
-        <v>8446235</v>
+        <v>8494196</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>145564</v>
+        <v>146577</v>
       </c>
       <c r="D33" t="n">
-        <v>47032</v>
+        <v>47081</v>
       </c>
       <c r="E33" t="n">
-        <v>229025255</v>
+        <v>232034543</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1778,13 +1778,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D35" t="n">
         <v>41</v>
       </c>
       <c r="E35" t="n">
-        <v>329282</v>
+        <v>343718</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2149</v>
+        <v>2173</v>
       </c>
       <c r="D36" t="n">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E36" t="n">
-        <v>8853852</v>
+        <v>9132826</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1860,13 +1860,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="n">
         <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>13500</v>
+        <v>20815</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>75196</v>
+        <v>76003</v>
       </c>
       <c r="D38" t="n">
-        <v>23424</v>
+        <v>23462</v>
       </c>
       <c r="E38" t="n">
-        <v>226873730</v>
+        <v>233808970</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D39" t="n">
         <v>42</v>
       </c>
       <c r="E39" t="n">
-        <v>863541</v>
+        <v>885816</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>16330</v>
+        <v>16491</v>
       </c>
       <c r="D41" t="n">
-        <v>5140</v>
+        <v>5155</v>
       </c>
       <c r="E41" t="n">
-        <v>51300718</v>
+        <v>53306418</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1944</v>
+        <v>1957</v>
       </c>
       <c r="D43" t="n">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="E43" t="n">
-        <v>3543356</v>
+        <v>3580393</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4438</v>
+        <v>4498</v>
       </c>
       <c r="D44" t="n">
-        <v>1236</v>
+        <v>1247</v>
       </c>
       <c r="E44" t="n">
-        <v>11008638</v>
+        <v>11325465</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2188,13 +2188,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>104903</v>
+        <v>105600</v>
       </c>
       <c r="D45" t="n">
-        <v>32703</v>
+        <v>32739</v>
       </c>
       <c r="E45" t="n">
-        <v>163387842</v>
+        <v>165276692</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D47" t="n">
         <v>19</v>
       </c>
       <c r="E47" t="n">
-        <v>188737</v>
+        <v>198737</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="D49" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E49" t="n">
-        <v>2777280</v>
+        <v>2858038</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>46128</v>
+        <v>46505</v>
       </c>
       <c r="D50" t="n">
-        <v>14401</v>
+        <v>14421</v>
       </c>
       <c r="E50" t="n">
-        <v>129791908</v>
+        <v>132923914</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2516,13 +2516,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>18775</v>
+        <v>18914</v>
       </c>
       <c r="D53" t="n">
-        <v>5642</v>
+        <v>5670</v>
       </c>
       <c r="E53" t="n">
-        <v>51633557</v>
+        <v>52606189</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1980</v>
+        <v>1994</v>
       </c>
       <c r="D54" t="n">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="E54" t="n">
-        <v>3880436</v>
+        <v>3931834</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2940</v>
+        <v>2962</v>
       </c>
       <c r="D56" t="n">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="E56" t="n">
-        <v>6917228</v>
+        <v>7013966</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>31681</v>
+        <v>31934</v>
       </c>
       <c r="D58" t="n">
-        <v>9207</v>
+        <v>9214</v>
       </c>
       <c r="E58" t="n">
-        <v>52607053</v>
+        <v>53360294</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2844,13 +2844,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D61" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E61" t="n">
-        <v>356700</v>
+        <v>366700</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2885,13 +2885,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>14002</v>
+        <v>14176</v>
       </c>
       <c r="D62" t="n">
-        <v>4009</v>
+        <v>4017</v>
       </c>
       <c r="E62" t="n">
-        <v>47848639</v>
+        <v>49321253</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2926,13 +2926,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D63" t="n">
         <v>13</v>
       </c>
       <c r="E63" t="n">
-        <v>173161</v>
+        <v>188222</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9292</v>
+        <v>9380</v>
       </c>
       <c r="D64" t="n">
-        <v>2661</v>
+        <v>2667</v>
       </c>
       <c r="E64" t="n">
-        <v>28503440</v>
+        <v>29075359</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="D65" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E65" t="n">
-        <v>1476900</v>
+        <v>1495203</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3049,13 +3049,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="D66" t="n">
         <v>135</v>
       </c>
       <c r="E66" t="n">
-        <v>1244783</v>
+        <v>1266441</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3090,13 +3090,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>220757</v>
+        <v>222366</v>
       </c>
       <c r="D67" t="n">
-        <v>69170</v>
+        <v>69237</v>
       </c>
       <c r="E67" t="n">
-        <v>353211235</v>
+        <v>357568807</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3131,13 +3131,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D68" t="n">
         <v>91</v>
       </c>
       <c r="E68" t="n">
-        <v>720874</v>
+        <v>726570</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3172,13 +3172,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D69" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E69" t="n">
-        <v>402847</v>
+        <v>418013</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>958</v>
+        <v>976</v>
       </c>
       <c r="D71" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E71" t="n">
-        <v>3428356</v>
+        <v>3599366</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3336,13 +3336,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>105746</v>
+        <v>106881</v>
       </c>
       <c r="D73" t="n">
-        <v>33280</v>
+        <v>33341</v>
       </c>
       <c r="E73" t="n">
-        <v>304366742</v>
+        <v>313972460</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D74" t="n">
         <v>102</v>
       </c>
       <c r="E74" t="n">
-        <v>2502225</v>
+        <v>2679713</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3459,13 +3459,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>50499</v>
+        <v>50947</v>
       </c>
       <c r="D76" t="n">
-        <v>15558</v>
+        <v>15579</v>
       </c>
       <c r="E76" t="n">
-        <v>145482380</v>
+        <v>148585712</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D77" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E77" t="n">
-        <v>57940</v>
+        <v>60940</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3541,13 +3541,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D78" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E78" t="n">
-        <v>645648</v>
+        <v>648648</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>9680</v>
+        <v>9829</v>
       </c>
       <c r="D79" t="n">
-        <v>5378</v>
+        <v>5425</v>
       </c>
       <c r="E79" t="n">
-        <v>39006875</v>
+        <v>39592257</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3623,13 +3623,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5489</v>
+        <v>5539</v>
       </c>
       <c r="D80" t="n">
-        <v>1494</v>
+        <v>1503</v>
       </c>
       <c r="E80" t="n">
-        <v>13595350</v>
+        <v>13858391</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>47192</v>
+        <v>47413</v>
       </c>
       <c r="D81" t="n">
-        <v>11943</v>
+        <v>11953</v>
       </c>
       <c r="E81" t="n">
-        <v>72192915</v>
+        <v>72573725</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3787,13 +3787,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>11320</v>
+        <v>11349</v>
       </c>
       <c r="D84" t="n">
         <v>3157</v>
       </c>
       <c r="E84" t="n">
-        <v>21400424</v>
+        <v>21518061</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>10598</v>
+        <v>10623</v>
       </c>
       <c r="D86" t="n">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="E86" t="n">
-        <v>18774221</v>
+        <v>18849785</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3910,13 +3910,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="D87" t="n">
         <v>196</v>
       </c>
       <c r="E87" t="n">
-        <v>1109720</v>
+        <v>1114212</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3951,13 +3951,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D88" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E88" t="n">
-        <v>1167593</v>
+        <v>1169093</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -3992,13 +3992,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>19353</v>
+        <v>19430</v>
       </c>
       <c r="D89" t="n">
-        <v>3639</v>
+        <v>3641</v>
       </c>
       <c r="E89" t="n">
-        <v>39759790</v>
+        <v>39906136</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4033,13 +4033,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4361</v>
+        <v>4378</v>
       </c>
       <c r="D90" t="n">
         <v>882</v>
       </c>
       <c r="E90" t="n">
-        <v>9897303</v>
+        <v>9949843</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4115,13 +4115,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6300</v>
+        <v>6327</v>
       </c>
       <c r="D92" t="n">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="E92" t="n">
-        <v>14376350</v>
+        <v>14442163</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4238,13 +4238,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D95" t="n">
         <v>76</v>
       </c>
       <c r="E95" t="n">
-        <v>834249</v>
+        <v>841499</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4279,13 +4279,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>217932</v>
+        <v>219342</v>
       </c>
       <c r="D96" t="n">
-        <v>66246</v>
+        <v>66294</v>
       </c>
       <c r="E96" t="n">
-        <v>331377919</v>
+        <v>335013192</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4320,13 +4320,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D97" t="n">
         <v>21</v>
       </c>
       <c r="E97" t="n">
-        <v>107299</v>
+        <v>110299</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4361,13 +4361,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D98" t="n">
         <v>36</v>
       </c>
       <c r="E98" t="n">
-        <v>214858</v>
+        <v>216358</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -4443,13 +4443,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>3</v>
       </c>
       <c r="E100" t="n">
-        <v>22883</v>
+        <v>33915</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4484,13 +4484,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2052</v>
+        <v>2079</v>
       </c>
       <c r="D101" t="n">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E101" t="n">
-        <v>7484980</v>
+        <v>7721061</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4566,13 +4566,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>87003</v>
+        <v>87772</v>
       </c>
       <c r="D103" t="n">
-        <v>26793</v>
+        <v>26833</v>
       </c>
       <c r="E103" t="n">
-        <v>245526729</v>
+        <v>251659637</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D104" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E104" t="n">
-        <v>1810324</v>
+        <v>2077649</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4689,13 +4689,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>47083</v>
+        <v>47400</v>
       </c>
       <c r="D106" t="n">
-        <v>13533</v>
+        <v>13568</v>
       </c>
       <c r="E106" t="n">
-        <v>130540436</v>
+        <v>133235773</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4771,13 +4771,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2198</v>
+        <v>2215</v>
       </c>
       <c r="D108" t="n">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="E108" t="n">
-        <v>5071877</v>
+        <v>5163941</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4476</v>
+        <v>4512</v>
       </c>
       <c r="D109" t="n">
-        <v>1239</v>
+        <v>1243</v>
       </c>
       <c r="E109" t="n">
-        <v>10615440</v>
+        <v>10802370</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4894,13 +4894,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>870834</v>
+        <v>875763</v>
       </c>
       <c r="D111" t="n">
-        <v>213685</v>
+        <v>213891</v>
       </c>
       <c r="E111" t="n">
-        <v>1430311155</v>
+        <v>1440272289</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4935,13 +4935,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D112" t="n">
         <v>42</v>
       </c>
       <c r="E112" t="n">
-        <v>331937</v>
+        <v>333437</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4976,13 +4976,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D113" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E113" t="n">
-        <v>1292075</v>
+        <v>1333047</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5058,13 +5058,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D115" t="n">
         <v>13</v>
       </c>
       <c r="E115" t="n">
-        <v>95440</v>
+        <v>141335</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5099,13 +5099,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3619</v>
+        <v>3700</v>
       </c>
       <c r="D116" t="n">
-        <v>1130</v>
+        <v>1141</v>
       </c>
       <c r="E116" t="n">
-        <v>20301483</v>
+        <v>21501356</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D117" t="n">
         <v>28</v>
       </c>
       <c r="E117" t="n">
-        <v>753041</v>
+        <v>777373</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5181,13 +5181,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>363023</v>
+        <v>366301</v>
       </c>
       <c r="D118" t="n">
-        <v>99908</v>
+        <v>100096</v>
       </c>
       <c r="E118" t="n">
-        <v>1052780794</v>
+        <v>1078443424</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5222,13 +5222,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1394</v>
+        <v>1431</v>
       </c>
       <c r="D119" t="n">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E119" t="n">
-        <v>11130759</v>
+        <v>11979081</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5263,13 +5263,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D120" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E120" t="n">
-        <v>1521904</v>
+        <v>1991075</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5304,13 +5304,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>335396</v>
+        <v>337359</v>
       </c>
       <c r="D121" t="n">
-        <v>84157</v>
+        <v>84354</v>
       </c>
       <c r="E121" t="n">
-        <v>912007927</v>
+        <v>926683234</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5345,13 +5345,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D122" t="n">
         <v>19</v>
       </c>
       <c r="E122" t="n">
-        <v>191884</v>
+        <v>212758</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4317</v>
+        <v>4363</v>
       </c>
       <c r="D123" t="n">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="E123" t="n">
-        <v>7613136</v>
+        <v>7705112</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5427,13 +5427,13 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D124" t="n">
         <v>6</v>
       </c>
       <c r="E124" t="n">
-        <v>48222</v>
+        <v>49722</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -5468,13 +5468,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>13666</v>
+        <v>13805</v>
       </c>
       <c r="D125" t="n">
-        <v>3628</v>
+        <v>3645</v>
       </c>
       <c r="E125" t="n">
-        <v>33728946</v>
+        <v>34338242</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5591,13 +5591,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>57073</v>
+        <v>57256</v>
       </c>
       <c r="D128" t="n">
-        <v>17199</v>
+        <v>17200</v>
       </c>
       <c r="E128" t="n">
-        <v>80354591</v>
+        <v>80698979</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>17010</v>
+        <v>17057</v>
       </c>
       <c r="D132" t="n">
-        <v>5876</v>
+        <v>5880</v>
       </c>
       <c r="E132" t="n">
-        <v>29882059</v>
+        <v>30082559</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>4733</v>
+        <v>4743</v>
       </c>
       <c r="D134" t="n">
         <v>1516</v>
       </c>
       <c r="E134" t="n">
-        <v>7949545</v>
+        <v>7995902</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5960,13 +5960,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D137" t="n">
         <v>166</v>
       </c>
       <c r="E137" t="n">
-        <v>712504</v>
+        <v>714004</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -6001,13 +6001,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D138" t="n">
         <v>164</v>
       </c>
       <c r="E138" t="n">
-        <v>1026239</v>
+        <v>1027739</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>26243</v>
+        <v>26352</v>
       </c>
       <c r="D139" t="n">
-        <v>6975</v>
+        <v>6979</v>
       </c>
       <c r="E139" t="n">
-        <v>40013963</v>
+        <v>40203564</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6083,13 +6083,13 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E140" t="n">
-        <v>12233</v>
+        <v>78689</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -6165,13 +6165,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>10952</v>
+        <v>11007</v>
       </c>
       <c r="D142" t="n">
-        <v>3114</v>
+        <v>3119</v>
       </c>
       <c r="E142" t="n">
-        <v>24356755</v>
+        <v>24583712</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6247,13 +6247,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7756</v>
+        <v>7784</v>
       </c>
       <c r="D144" t="n">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="E144" t="n">
-        <v>15716399</v>
+        <v>15816297</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D145" t="n">
         <v>123</v>
       </c>
       <c r="E145" t="n">
-        <v>620363</v>
+        <v>624545</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6370,13 +6370,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>35002</v>
+        <v>35099</v>
       </c>
       <c r="D147" t="n">
-        <v>5353</v>
+        <v>5356</v>
       </c>
       <c r="E147" t="n">
-        <v>87259622</v>
+        <v>87494031</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3372</v>
+        <v>3381</v>
       </c>
       <c r="D148" t="n">
         <v>657</v>
       </c>
       <c r="E148" t="n">
-        <v>8236403</v>
+        <v>8275918</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D151" t="n">
         <v>37</v>
       </c>
       <c r="E151" t="n">
-        <v>523986</v>
+        <v>525486</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>134465</v>
+        <v>135330</v>
       </c>
       <c r="D152" t="n">
-        <v>41566</v>
+        <v>41593</v>
       </c>
       <c r="E152" t="n">
-        <v>212888506</v>
+        <v>215411182</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D154" t="n">
         <v>41</v>
       </c>
       <c r="E154" t="n">
-        <v>322793</v>
+        <v>332793</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1509</v>
+        <v>1543</v>
       </c>
       <c r="D156" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E156" t="n">
-        <v>6198274</v>
+        <v>6561443</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6780,13 +6780,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E157" t="n">
-        <v>38658</v>
+        <v>46295</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -6821,13 +6821,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>57153</v>
+        <v>57639</v>
       </c>
       <c r="D158" t="n">
-        <v>17690</v>
+        <v>17715</v>
       </c>
       <c r="E158" t="n">
-        <v>169758026</v>
+        <v>173748623</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6862,13 +6862,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D159" t="n">
         <v>31</v>
       </c>
       <c r="E159" t="n">
-        <v>668040</v>
+        <v>688553</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -6903,13 +6903,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>22852</v>
+        <v>23003</v>
       </c>
       <c r="D160" t="n">
-        <v>6728</v>
+        <v>6737</v>
       </c>
       <c r="E160" t="n">
-        <v>67947264</v>
+        <v>69463026</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6985,13 +6985,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="D162" t="n">
         <v>644</v>
       </c>
       <c r="E162" t="n">
-        <v>3302095</v>
+        <v>3310905</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3324</v>
+        <v>3352</v>
       </c>
       <c r="D163" t="n">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="E163" t="n">
-        <v>7890843</v>
+        <v>8042823</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7067,13 +7067,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>356626</v>
+        <v>358801</v>
       </c>
       <c r="D164" t="n">
-        <v>111995</v>
+        <v>112095</v>
       </c>
       <c r="E164" t="n">
-        <v>534728812</v>
+        <v>540039219</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7149,13 +7149,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D166" t="n">
         <v>93</v>
       </c>
       <c r="E166" t="n">
-        <v>583206</v>
+        <v>585019</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7313,13 +7313,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1726</v>
+        <v>1748</v>
       </c>
       <c r="D170" t="n">
         <v>516</v>
       </c>
       <c r="E170" t="n">
-        <v>6046969</v>
+        <v>6227743</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>141567</v>
+        <v>142857</v>
       </c>
       <c r="D172" t="n">
-        <v>44556</v>
+        <v>44638</v>
       </c>
       <c r="E172" t="n">
-        <v>405239001</v>
+        <v>415340188</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7436,13 +7436,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D173" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E173" t="n">
-        <v>1804829</v>
+        <v>2008105</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7518,13 +7518,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>56600</v>
+        <v>56996</v>
       </c>
       <c r="D175" t="n">
-        <v>17081</v>
+        <v>17119</v>
       </c>
       <c r="E175" t="n">
-        <v>161467640</v>
+        <v>164478540</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7641,13 +7641,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>7487</v>
+        <v>7539</v>
       </c>
       <c r="D178" t="n">
-        <v>3112</v>
+        <v>3121</v>
       </c>
       <c r="E178" t="n">
-        <v>15589341</v>
+        <v>15847396</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7723,13 +7723,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>9396</v>
+        <v>9463</v>
       </c>
       <c r="D180" t="n">
-        <v>2576</v>
+        <v>2583</v>
       </c>
       <c r="E180" t="n">
-        <v>21138204</v>
+        <v>21450701</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7805,13 +7805,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>406927</v>
+        <v>409644</v>
       </c>
       <c r="D182" t="n">
-        <v>123577</v>
+        <v>123687</v>
       </c>
       <c r="E182" t="n">
-        <v>596726163</v>
+        <v>602373088</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -7846,13 +7846,13 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D183" t="n">
         <v>70</v>
       </c>
       <c r="E183" t="n">
-        <v>359125</v>
+        <v>369125</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D184" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E184" t="n">
-        <v>879852</v>
+        <v>888114</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -8051,13 +8051,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1149</v>
+        <v>1162</v>
       </c>
       <c r="D188" t="n">
         <v>336</v>
       </c>
       <c r="E188" t="n">
-        <v>4011936</v>
+        <v>4111176</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>158486</v>
+        <v>160042</v>
       </c>
       <c r="D190" t="n">
-        <v>47899</v>
+        <v>47986</v>
       </c>
       <c r="E190" t="n">
-        <v>447953954</v>
+        <v>458926888</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -8174,13 +8174,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D191" t="n">
         <v>110</v>
       </c>
       <c r="E191" t="n">
-        <v>1995032</v>
+        <v>2264263</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -8256,13 +8256,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>88515</v>
+        <v>89223</v>
       </c>
       <c r="D193" t="n">
-        <v>25543</v>
+        <v>25593</v>
       </c>
       <c r="E193" t="n">
-        <v>241844450</v>
+        <v>245772612</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -8297,13 +8297,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D194" t="n">
         <v>17</v>
       </c>
       <c r="E194" t="n">
-        <v>170861</v>
+        <v>171938</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6789</v>
+        <v>6839</v>
       </c>
       <c r="D196" t="n">
-        <v>2706</v>
+        <v>2713</v>
       </c>
       <c r="E196" t="n">
-        <v>12372863</v>
+        <v>12510692</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8461,13 +8461,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D198" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E198" t="n">
-        <v>251522</v>
+        <v>253022</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -8502,13 +8502,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>11926</v>
+        <v>12027</v>
       </c>
       <c r="D199" t="n">
-        <v>3091</v>
+        <v>3108</v>
       </c>
       <c r="E199" t="n">
-        <v>26802760</v>
+        <v>27223057</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -8584,13 +8584,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>160424</v>
+        <v>161460</v>
       </c>
       <c r="D201" t="n">
-        <v>51126</v>
+        <v>51171</v>
       </c>
       <c r="E201" t="n">
-        <v>247345914</v>
+        <v>249875611</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -8748,13 +8748,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1354</v>
+        <v>1371</v>
       </c>
       <c r="D205" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E205" t="n">
-        <v>5643577</v>
+        <v>5784773</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8789,13 +8789,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>81620</v>
+        <v>82362</v>
       </c>
       <c r="D206" t="n">
-        <v>26286</v>
+        <v>26312</v>
       </c>
       <c r="E206" t="n">
-        <v>237499170</v>
+        <v>243376887</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8830,13 +8830,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D207" t="n">
         <v>40</v>
       </c>
       <c r="E207" t="n">
-        <v>991701</v>
+        <v>1004791</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -8912,13 +8912,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>21976</v>
+        <v>22140</v>
       </c>
       <c r="D209" t="n">
-        <v>6693</v>
+        <v>6716</v>
       </c>
       <c r="E209" t="n">
-        <v>66371836</v>
+        <v>68069190</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -8994,13 +8994,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2649</v>
+        <v>2661</v>
       </c>
       <c r="D211" t="n">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="E211" t="n">
-        <v>5352995</v>
+        <v>5380195</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -9076,13 +9076,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4740</v>
+        <v>4765</v>
       </c>
       <c r="D213" t="n">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="E213" t="n">
-        <v>11505714</v>
+        <v>11656212</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9117,13 +9117,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>409802</v>
+        <v>412684</v>
       </c>
       <c r="D214" t="n">
-        <v>117693</v>
+        <v>117773</v>
       </c>
       <c r="E214" t="n">
-        <v>620972635</v>
+        <v>627220145</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -9158,13 +9158,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D215" t="n">
         <v>82</v>
       </c>
       <c r="E215" t="n">
-        <v>474938</v>
+        <v>494818</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -9199,13 +9199,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="D216" t="n">
         <v>126</v>
       </c>
       <c r="E216" t="n">
-        <v>1086034</v>
+        <v>1134300</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -9363,13 +9363,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1934</v>
+        <v>1973</v>
       </c>
       <c r="D220" t="n">
         <v>547</v>
       </c>
       <c r="E220" t="n">
-        <v>8182542</v>
+        <v>8719808</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -9404,13 +9404,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D221" t="n">
         <v>13</v>
       </c>
       <c r="E221" t="n">
-        <v>190637</v>
+        <v>256797</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -9445,13 +9445,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>165326</v>
+        <v>167064</v>
       </c>
       <c r="D222" t="n">
-        <v>47874</v>
+        <v>47946</v>
       </c>
       <c r="E222" t="n">
-        <v>483133639</v>
+        <v>496798467</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -9486,13 +9486,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D223" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E223" t="n">
-        <v>1720209</v>
+        <v>1790031</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -9527,13 +9527,13 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D224" t="n">
         <v>10</v>
       </c>
       <c r="E224" t="n">
-        <v>338280</v>
+        <v>358988</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -9568,13 +9568,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>117685</v>
+        <v>118537</v>
       </c>
       <c r="D225" t="n">
-        <v>32069</v>
+        <v>32134</v>
       </c>
       <c r="E225" t="n">
-        <v>331031589</v>
+        <v>336323910</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -9691,13 +9691,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3766</v>
+        <v>3789</v>
       </c>
       <c r="D228" t="n">
-        <v>1424</v>
+        <v>1429</v>
       </c>
       <c r="E228" t="n">
-        <v>7137948</v>
+        <v>7176755</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -9814,13 +9814,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>9627</v>
+        <v>9684</v>
       </c>
       <c r="D231" t="n">
-        <v>2427</v>
+        <v>2436</v>
       </c>
       <c r="E231" t="n">
-        <v>22643615</v>
+        <v>22905859</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-02-03/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -425,13 +425,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>509465</v>
+        <v>510875</v>
       </c>
       <c r="D2" t="n">
-        <v>150951</v>
+        <v>151035</v>
       </c>
       <c r="E2" t="n">
-        <v>795210352</v>
+        <v>799277385</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D3" t="n">
         <v>126</v>
       </c>
       <c r="E3" t="n">
-        <v>666565</v>
+        <v>676439</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -507,13 +507,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="D4" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E4" t="n">
-        <v>1651293</v>
+        <v>1673871</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1909</v>
+        <v>1923</v>
       </c>
       <c r="D8" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E8" t="n">
-        <v>7521773</v>
+        <v>7722736</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="n">
         <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>415439</v>
+        <v>422991</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>202445</v>
+        <v>203736</v>
       </c>
       <c r="D10" t="n">
-        <v>61317</v>
+        <v>61366</v>
       </c>
       <c r="E10" t="n">
-        <v>614001439</v>
+        <v>625831361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D11" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E11" t="n">
-        <v>3548687</v>
+        <v>3568687</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>106032</v>
+        <v>107016</v>
       </c>
       <c r="D13" t="n">
-        <v>30953</v>
+        <v>30994</v>
       </c>
       <c r="E13" t="n">
-        <v>317144337</v>
+        <v>327331662</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -917,13 +917,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" t="n">
         <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>181493</v>
+        <v>182993</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -958,13 +958,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5864</v>
+        <v>5884</v>
       </c>
       <c r="D15" t="n">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="E15" t="n">
-        <v>10855301</v>
+        <v>10940345</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13810</v>
+        <v>13853</v>
       </c>
       <c r="D17" t="n">
-        <v>3635</v>
+        <v>3643</v>
       </c>
       <c r="E17" t="n">
-        <v>34102568</v>
+        <v>34332812</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1122,13 +1122,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>120370</v>
+        <v>120705</v>
       </c>
       <c r="D19" t="n">
-        <v>36961</v>
+        <v>36976</v>
       </c>
       <c r="E19" t="n">
-        <v>186497234</v>
+        <v>187655394</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="D24" t="n">
         <v>157</v>
       </c>
       <c r="E24" t="n">
-        <v>1934975</v>
+        <v>1973405</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1368,13 +1368,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>54351</v>
+        <v>54700</v>
       </c>
       <c r="D25" t="n">
-        <v>16869</v>
+        <v>16883</v>
       </c>
       <c r="E25" t="n">
-        <v>160471850</v>
+        <v>163615337</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26" t="n">
         <v>46</v>
       </c>
       <c r="E26" t="n">
-        <v>1020840</v>
+        <v>1095821</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20211</v>
+        <v>20356</v>
       </c>
       <c r="D28" t="n">
-        <v>6128</v>
+        <v>6131</v>
       </c>
       <c r="E28" t="n">
-        <v>59287479</v>
+        <v>60492344</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2377</v>
+        <v>2383</v>
       </c>
       <c r="D30" t="n">
         <v>1026</v>
       </c>
       <c r="E30" t="n">
-        <v>4845905</v>
+        <v>4868403</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3551</v>
+        <v>3562</v>
       </c>
       <c r="D32" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E32" t="n">
-        <v>8494196</v>
+        <v>8551594</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1696,13 +1696,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>146577</v>
+        <v>146950</v>
       </c>
       <c r="D33" t="n">
-        <v>47081</v>
+        <v>47100</v>
       </c>
       <c r="E33" t="n">
-        <v>232034543</v>
+        <v>233425649</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2173</v>
+        <v>2204</v>
       </c>
       <c r="D36" t="n">
         <v>598</v>
       </c>
       <c r="E36" t="n">
-        <v>9132826</v>
+        <v>9448094</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1901,13 +1901,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>76003</v>
+        <v>76541</v>
       </c>
       <c r="D38" t="n">
-        <v>23462</v>
+        <v>23472</v>
       </c>
       <c r="E38" t="n">
-        <v>233808970</v>
+        <v>238895354</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1942,13 +1942,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D39" t="n">
         <v>42</v>
       </c>
       <c r="E39" t="n">
-        <v>885816</v>
+        <v>1015555</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2024,13 +2024,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>16491</v>
+        <v>16615</v>
       </c>
       <c r="D41" t="n">
-        <v>5155</v>
+        <v>5157</v>
       </c>
       <c r="E41" t="n">
-        <v>53306418</v>
+        <v>54574354</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2106,13 +2106,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="D43" t="n">
         <v>760</v>
       </c>
       <c r="E43" t="n">
-        <v>3580393</v>
+        <v>3585806</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4498</v>
+        <v>4515</v>
       </c>
       <c r="D44" t="n">
-        <v>1247</v>
+        <v>1251</v>
       </c>
       <c r="E44" t="n">
-        <v>11325465</v>
+        <v>11403017</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2188,13 +2188,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>105600</v>
+        <v>105887</v>
       </c>
       <c r="D45" t="n">
-        <v>32739</v>
+        <v>32745</v>
       </c>
       <c r="E45" t="n">
-        <v>165276692</v>
+        <v>166273984</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D46" t="n">
         <v>18</v>
       </c>
       <c r="E46" t="n">
-        <v>75670</v>
+        <v>78490</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="D49" t="n">
         <v>236</v>
       </c>
       <c r="E49" t="n">
-        <v>2858038</v>
+        <v>2919542</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>46505</v>
+        <v>46797</v>
       </c>
       <c r="D50" t="n">
-        <v>14421</v>
+        <v>14429</v>
       </c>
       <c r="E50" t="n">
-        <v>132923914</v>
+        <v>135540669</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2434,13 +2434,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D51" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E51" t="n">
-        <v>673573</v>
+        <v>675073</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2516,13 +2516,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>18914</v>
+        <v>19085</v>
       </c>
       <c r="D53" t="n">
-        <v>5670</v>
+        <v>5673</v>
       </c>
       <c r="E53" t="n">
-        <v>52606189</v>
+        <v>54184797</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1994</v>
+        <v>1999</v>
       </c>
       <c r="D54" t="n">
         <v>779</v>
       </c>
       <c r="E54" t="n">
-        <v>3931834</v>
+        <v>3962784</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2639,13 +2639,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2962</v>
+        <v>2966</v>
       </c>
       <c r="D56" t="n">
         <v>857</v>
       </c>
       <c r="E56" t="n">
-        <v>7013966</v>
+        <v>7052466</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>31934</v>
+        <v>31997</v>
       </c>
       <c r="D58" t="n">
-        <v>9214</v>
+        <v>9218</v>
       </c>
       <c r="E58" t="n">
-        <v>53360294</v>
+        <v>53544764</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2885,13 +2885,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>14176</v>
+        <v>14243</v>
       </c>
       <c r="D62" t="n">
-        <v>4017</v>
+        <v>4019</v>
       </c>
       <c r="E62" t="n">
-        <v>49321253</v>
+        <v>49919189</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9380</v>
+        <v>9449</v>
       </c>
       <c r="D64" t="n">
-        <v>2667</v>
+        <v>2672</v>
       </c>
       <c r="E64" t="n">
-        <v>29075359</v>
+        <v>29590989</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="D65" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E65" t="n">
-        <v>1495203</v>
+        <v>1504333</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3090,13 +3090,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>222366</v>
+        <v>222951</v>
       </c>
       <c r="D67" t="n">
-        <v>69237</v>
+        <v>69268</v>
       </c>
       <c r="E67" t="n">
-        <v>357568807</v>
+        <v>359370557</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3131,13 +3131,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D68" t="n">
         <v>91</v>
       </c>
       <c r="E68" t="n">
-        <v>726570</v>
+        <v>728970</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3254,13 +3254,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="D71" t="n">
         <v>289</v>
       </c>
       <c r="E71" t="n">
-        <v>3599366</v>
+        <v>3688593</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3336,13 +3336,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>106881</v>
+        <v>107441</v>
       </c>
       <c r="D73" t="n">
-        <v>33341</v>
+        <v>33354</v>
       </c>
       <c r="E73" t="n">
-        <v>313972460</v>
+        <v>319171728</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D74" t="n">
         <v>102</v>
       </c>
       <c r="E74" t="n">
-        <v>2679713</v>
+        <v>2697065</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -3418,13 +3418,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D75" t="n">
         <v>15</v>
       </c>
       <c r="E75" t="n">
-        <v>255907</v>
+        <v>303291</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3459,13 +3459,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>50947</v>
+        <v>51302</v>
       </c>
       <c r="D76" t="n">
-        <v>15579</v>
+        <v>15589</v>
       </c>
       <c r="E76" t="n">
-        <v>148585712</v>
+        <v>152136390</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E77" t="n">
-        <v>60940</v>
+        <v>65440</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3541,13 +3541,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D78" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E78" t="n">
-        <v>648648</v>
+        <v>661648</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -3582,13 +3582,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>9829</v>
+        <v>9881</v>
       </c>
       <c r="D79" t="n">
-        <v>5425</v>
+        <v>5443</v>
       </c>
       <c r="E79" t="n">
-        <v>39592257</v>
+        <v>39859260</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3623,13 +3623,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5539</v>
+        <v>5549</v>
       </c>
       <c r="D80" t="n">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="E80" t="n">
-        <v>13858391</v>
+        <v>13914952</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -3664,13 +3664,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>47413</v>
+        <v>47508</v>
       </c>
       <c r="D81" t="n">
-        <v>11953</v>
+        <v>11957</v>
       </c>
       <c r="E81" t="n">
-        <v>72573725</v>
+        <v>72823106</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3787,13 +3787,13 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>11349</v>
+        <v>11373</v>
       </c>
       <c r="D84" t="n">
         <v>3157</v>
       </c>
       <c r="E84" t="n">
-        <v>21518061</v>
+        <v>21680964</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>10623</v>
+        <v>10642</v>
       </c>
       <c r="D86" t="n">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="E86" t="n">
-        <v>18849785</v>
+        <v>18950304</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -3910,13 +3910,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D87" t="n">
         <v>196</v>
       </c>
       <c r="E87" t="n">
-        <v>1114212</v>
+        <v>1124212</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -3992,13 +3992,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>19430</v>
+        <v>19445</v>
       </c>
       <c r="D89" t="n">
         <v>3641</v>
       </c>
       <c r="E89" t="n">
-        <v>39906136</v>
+        <v>39940687</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4033,13 +4033,13 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4378</v>
+        <v>4381</v>
       </c>
       <c r="D90" t="n">
         <v>882</v>
       </c>
       <c r="E90" t="n">
-        <v>9949843</v>
+        <v>9977234</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4115,13 +4115,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6327</v>
+        <v>6336</v>
       </c>
       <c r="D92" t="n">
         <v>1219</v>
       </c>
       <c r="E92" t="n">
-        <v>14442163</v>
+        <v>14473516</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4279,13 +4279,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>219342</v>
+        <v>219938</v>
       </c>
       <c r="D96" t="n">
-        <v>66294</v>
+        <v>66314</v>
       </c>
       <c r="E96" t="n">
-        <v>335013192</v>
+        <v>337073741</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4484,13 +4484,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2079</v>
+        <v>2108</v>
       </c>
       <c r="D101" t="n">
         <v>562</v>
       </c>
       <c r="E101" t="n">
-        <v>7721061</v>
+        <v>7931489</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -4566,13 +4566,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>87772</v>
+        <v>88337</v>
       </c>
       <c r="D103" t="n">
-        <v>26833</v>
+        <v>26856</v>
       </c>
       <c r="E103" t="n">
-        <v>251659637</v>
+        <v>257020514</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -4607,13 +4607,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D104" t="n">
         <v>93</v>
       </c>
       <c r="E104" t="n">
-        <v>2077649</v>
+        <v>2087649</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4648,13 +4648,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D105" t="n">
         <v>10</v>
       </c>
       <c r="E105" t="n">
-        <v>169190</v>
+        <v>170690</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -4689,13 +4689,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>47400</v>
+        <v>47812</v>
       </c>
       <c r="D106" t="n">
-        <v>13568</v>
+        <v>13591</v>
       </c>
       <c r="E106" t="n">
-        <v>133235773</v>
+        <v>137367302</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -4771,13 +4771,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="D108" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E108" t="n">
-        <v>5163941</v>
+        <v>5173347</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>4512</v>
+        <v>4514</v>
       </c>
       <c r="D109" t="n">
         <v>1243</v>
       </c>
       <c r="E109" t="n">
-        <v>10802370</v>
+        <v>10813843</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -4894,13 +4894,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>875763</v>
+        <v>878552</v>
       </c>
       <c r="D111" t="n">
-        <v>213891</v>
+        <v>213969</v>
       </c>
       <c r="E111" t="n">
-        <v>1440272289</v>
+        <v>1448414870</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -4935,13 +4935,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D112" t="n">
         <v>42</v>
       </c>
       <c r="E112" t="n">
-        <v>333437</v>
+        <v>342037</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -4976,13 +4976,13 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D113" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E113" t="n">
-        <v>1333047</v>
+        <v>1353047</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5099,13 +5099,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3700</v>
+        <v>3727</v>
       </c>
       <c r="D116" t="n">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="E116" t="n">
-        <v>21501356</v>
+        <v>21770440</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D117" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E117" t="n">
-        <v>777373</v>
+        <v>841218</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5181,13 +5181,13 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>366301</v>
+        <v>368268</v>
       </c>
       <c r="D118" t="n">
-        <v>100096</v>
+        <v>100184</v>
       </c>
       <c r="E118" t="n">
-        <v>1078443424</v>
+        <v>1096463935</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -5222,13 +5222,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1431</v>
+        <v>1436</v>
       </c>
       <c r="D119" t="n">
         <v>479</v>
       </c>
       <c r="E119" t="n">
-        <v>11979081</v>
+        <v>12096672</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -5263,13 +5263,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D120" t="n">
         <v>41</v>
       </c>
       <c r="E120" t="n">
-        <v>1991075</v>
+        <v>2016386</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5304,13 +5304,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>337359</v>
+        <v>340008</v>
       </c>
       <c r="D121" t="n">
-        <v>84354</v>
+        <v>84443</v>
       </c>
       <c r="E121" t="n">
-        <v>926683234</v>
+        <v>948860672</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5345,13 +5345,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D122" t="n">
         <v>19</v>
       </c>
       <c r="E122" t="n">
-        <v>212758</v>
+        <v>214258</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>4363</v>
+        <v>4373</v>
       </c>
       <c r="D123" t="n">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="E123" t="n">
-        <v>7705112</v>
+        <v>7728827</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -5468,13 +5468,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>13805</v>
+        <v>13849</v>
       </c>
       <c r="D125" t="n">
-        <v>3645</v>
+        <v>3656</v>
       </c>
       <c r="E125" t="n">
-        <v>34338242</v>
+        <v>34606463</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5509,13 +5509,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D126" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E126" t="n">
-        <v>28817</v>
+        <v>37998</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5591,13 +5591,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>57256</v>
+        <v>57317</v>
       </c>
       <c r="D128" t="n">
-        <v>17200</v>
+        <v>17202</v>
       </c>
       <c r="E128" t="n">
-        <v>80698979</v>
+        <v>80834053</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>17057</v>
+        <v>17071</v>
       </c>
       <c r="D132" t="n">
         <v>5880</v>
       </c>
       <c r="E132" t="n">
-        <v>30082559</v>
+        <v>30156945</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5837,13 +5837,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>4743</v>
+        <v>4749</v>
       </c>
       <c r="D134" t="n">
         <v>1516</v>
       </c>
       <c r="E134" t="n">
-        <v>7995902</v>
+        <v>8017268</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -5960,13 +5960,13 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D137" t="n">
         <v>166</v>
       </c>
       <c r="E137" t="n">
-        <v>714004</v>
+        <v>719554</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>26352</v>
+        <v>26395</v>
       </c>
       <c r="D139" t="n">
-        <v>6979</v>
+        <v>6982</v>
       </c>
       <c r="E139" t="n">
-        <v>40203564</v>
+        <v>40325368</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6165,13 +6165,13 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>11007</v>
+        <v>11037</v>
       </c>
       <c r="D142" t="n">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="E142" t="n">
-        <v>24583712</v>
+        <v>24780427</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -6247,13 +6247,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7784</v>
+        <v>7793</v>
       </c>
       <c r="D144" t="n">
         <v>2028</v>
       </c>
       <c r="E144" t="n">
-        <v>15816297</v>
+        <v>15847288</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6288,13 +6288,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D145" t="n">
         <v>123</v>
       </c>
       <c r="E145" t="n">
-        <v>624545</v>
+        <v>634545</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -6370,13 +6370,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>35099</v>
+        <v>35129</v>
       </c>
       <c r="D147" t="n">
         <v>5356</v>
       </c>
       <c r="E147" t="n">
-        <v>87494031</v>
+        <v>87562003</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3381</v>
+        <v>3385</v>
       </c>
       <c r="D148" t="n">
         <v>657</v>
       </c>
       <c r="E148" t="n">
-        <v>8275918</v>
+        <v>8291220</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -6452,13 +6452,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D149" t="n">
         <v>86</v>
       </c>
       <c r="E149" t="n">
-        <v>1104152</v>
+        <v>1105652</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -6575,13 +6575,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>135330</v>
+        <v>135641</v>
       </c>
       <c r="D152" t="n">
-        <v>41593</v>
+        <v>41601</v>
       </c>
       <c r="E152" t="n">
-        <v>215411182</v>
+        <v>216580230</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D154" t="n">
         <v>41</v>
       </c>
       <c r="E154" t="n">
-        <v>332793</v>
+        <v>342793</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6739,13 +6739,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1543</v>
+        <v>1566</v>
       </c>
       <c r="D156" t="n">
         <v>461</v>
       </c>
       <c r="E156" t="n">
-        <v>6561443</v>
+        <v>6765900</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6821,13 +6821,13 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>57639</v>
+        <v>58100</v>
       </c>
       <c r="D158" t="n">
-        <v>17715</v>
+        <v>17722</v>
       </c>
       <c r="E158" t="n">
-        <v>173748623</v>
+        <v>177854142</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -6903,13 +6903,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>23003</v>
+        <v>23223</v>
       </c>
       <c r="D160" t="n">
-        <v>6737</v>
+        <v>6748</v>
       </c>
       <c r="E160" t="n">
-        <v>69463026</v>
+        <v>71650550</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -6985,13 +6985,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1754</v>
+        <v>1759</v>
       </c>
       <c r="D162" t="n">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E162" t="n">
-        <v>3310905</v>
+        <v>3340106</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7026,13 +7026,13 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3352</v>
+        <v>3366</v>
       </c>
       <c r="D163" t="n">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="E163" t="n">
-        <v>8042823</v>
+        <v>8121015</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -7067,13 +7067,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>358801</v>
+        <v>359657</v>
       </c>
       <c r="D164" t="n">
-        <v>112095</v>
+        <v>112125</v>
       </c>
       <c r="E164" t="n">
-        <v>540039219</v>
+        <v>542560764</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7108,13 +7108,13 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D165" t="n">
         <v>60</v>
       </c>
       <c r="E165" t="n">
-        <v>271503</v>
+        <v>273478</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -7149,13 +7149,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D166" t="n">
         <v>93</v>
       </c>
       <c r="E166" t="n">
-        <v>585019</v>
+        <v>596519</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -7313,13 +7313,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1748</v>
+        <v>1773</v>
       </c>
       <c r="D170" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E170" t="n">
-        <v>6227743</v>
+        <v>6433695</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>142857</v>
+        <v>143820</v>
       </c>
       <c r="D172" t="n">
-        <v>44638</v>
+        <v>44673</v>
       </c>
       <c r="E172" t="n">
-        <v>415340188</v>
+        <v>424001478</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7436,13 +7436,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D173" t="n">
         <v>98</v>
       </c>
       <c r="E173" t="n">
-        <v>2008105</v>
+        <v>2107179</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7518,13 +7518,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>56996</v>
+        <v>57564</v>
       </c>
       <c r="D175" t="n">
-        <v>17119</v>
+        <v>17140</v>
       </c>
       <c r="E175" t="n">
-        <v>164478540</v>
+        <v>169572376</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7600,13 +7600,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D177" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="n">
-        <v>66864</v>
+        <v>68364</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7641,13 +7641,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>7539</v>
+        <v>7561</v>
       </c>
       <c r="D178" t="n">
-        <v>3121</v>
+        <v>3124</v>
       </c>
       <c r="E178" t="n">
-        <v>15847396</v>
+        <v>15934159</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7723,13 +7723,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>9463</v>
+        <v>9486</v>
       </c>
       <c r="D180" t="n">
-        <v>2583</v>
+        <v>2586</v>
       </c>
       <c r="E180" t="n">
-        <v>21450701</v>
+        <v>21580207</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7805,13 +7805,13 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>409644</v>
+        <v>410687</v>
       </c>
       <c r="D182" t="n">
-        <v>123687</v>
+        <v>123727</v>
       </c>
       <c r="E182" t="n">
-        <v>602373088</v>
+        <v>605148887</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -7887,13 +7887,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D184" t="n">
         <v>128</v>
       </c>
       <c r="E184" t="n">
-        <v>888114</v>
+        <v>908114</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -8051,13 +8051,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1162</v>
+        <v>1174</v>
       </c>
       <c r="D188" t="n">
         <v>336</v>
       </c>
       <c r="E188" t="n">
-        <v>4111176</v>
+        <v>4214361</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>160042</v>
+        <v>161130</v>
       </c>
       <c r="D190" t="n">
-        <v>47986</v>
+        <v>48016</v>
       </c>
       <c r="E190" t="n">
-        <v>458926888</v>
+        <v>468112811</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -8174,13 +8174,13 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D191" t="n">
         <v>110</v>
       </c>
       <c r="E191" t="n">
-        <v>2264263</v>
+        <v>2341472</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -8256,13 +8256,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>89223</v>
+        <v>90140</v>
       </c>
       <c r="D193" t="n">
-        <v>25593</v>
+        <v>25619</v>
       </c>
       <c r="E193" t="n">
-        <v>245772612</v>
+        <v>253374878</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -8297,13 +8297,13 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D194" t="n">
         <v>17</v>
       </c>
       <c r="E194" t="n">
-        <v>171938</v>
+        <v>173438</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -8379,13 +8379,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6839</v>
+        <v>6860</v>
       </c>
       <c r="D196" t="n">
-        <v>2713</v>
+        <v>2714</v>
       </c>
       <c r="E196" t="n">
-        <v>12510692</v>
+        <v>12598892</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8461,13 +8461,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D198" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E198" t="n">
-        <v>253022</v>
+        <v>273022</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -8502,13 +8502,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>12027</v>
+        <v>12068</v>
       </c>
       <c r="D199" t="n">
-        <v>3108</v>
+        <v>3111</v>
       </c>
       <c r="E199" t="n">
-        <v>27223057</v>
+        <v>27472731</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -8584,13 +8584,13 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>161460</v>
+        <v>161807</v>
       </c>
       <c r="D201" t="n">
-        <v>51171</v>
+        <v>51182</v>
       </c>
       <c r="E201" t="n">
-        <v>249875611</v>
+        <v>251096574</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -8666,13 +8666,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D203" t="n">
         <v>29</v>
       </c>
       <c r="E203" t="n">
-        <v>294673</v>
+        <v>302229</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8748,13 +8748,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1371</v>
+        <v>1385</v>
       </c>
       <c r="D205" t="n">
         <v>396</v>
       </c>
       <c r="E205" t="n">
-        <v>5784773</v>
+        <v>5890332</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8789,13 +8789,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>82362</v>
+        <v>82954</v>
       </c>
       <c r="D206" t="n">
-        <v>26312</v>
+        <v>26331</v>
       </c>
       <c r="E206" t="n">
-        <v>243376887</v>
+        <v>248844237</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -8912,13 +8912,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>22140</v>
+        <v>22351</v>
       </c>
       <c r="D209" t="n">
-        <v>6716</v>
+        <v>6720</v>
       </c>
       <c r="E209" t="n">
-        <v>68069190</v>
+        <v>69886665</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -8994,13 +8994,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2661</v>
+        <v>2670</v>
       </c>
       <c r="D211" t="n">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E211" t="n">
-        <v>5380195</v>
+        <v>5440784</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -9076,13 +9076,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4765</v>
+        <v>4777</v>
       </c>
       <c r="D213" t="n">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="E213" t="n">
-        <v>11656212</v>
+        <v>11719817</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9117,13 +9117,13 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>412684</v>
+        <v>413759</v>
       </c>
       <c r="D214" t="n">
-        <v>117773</v>
+        <v>117820</v>
       </c>
       <c r="E214" t="n">
-        <v>627220145</v>
+        <v>629992034</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -9281,13 +9281,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D218" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E218" t="n">
-        <v>32036</v>
+        <v>42036</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -9363,13 +9363,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1973</v>
+        <v>1982</v>
       </c>
       <c r="D220" t="n">
         <v>547</v>
       </c>
       <c r="E220" t="n">
-        <v>8719808</v>
+        <v>8795590</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -9404,13 +9404,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D221" t="n">
         <v>13</v>
       </c>
       <c r="E221" t="n">
-        <v>256797</v>
+        <v>308060</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -9445,13 +9445,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>167064</v>
+        <v>168087</v>
       </c>
       <c r="D222" t="n">
-        <v>47946</v>
+        <v>47970</v>
       </c>
       <c r="E222" t="n">
-        <v>496798467</v>
+        <v>505358882</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -9486,13 +9486,13 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D223" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E223" t="n">
-        <v>1790031</v>
+        <v>1948170</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
@@ -9568,13 +9568,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>118537</v>
+        <v>119498</v>
       </c>
       <c r="D225" t="n">
-        <v>32134</v>
+        <v>32156</v>
       </c>
       <c r="E225" t="n">
-        <v>336323910</v>
+        <v>344063921</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -9691,13 +9691,13 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3789</v>
+        <v>3801</v>
       </c>
       <c r="D228" t="n">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="E228" t="n">
-        <v>7176755</v>
+        <v>7223845</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -9814,13 +9814,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>9684</v>
+        <v>9705</v>
       </c>
       <c r="D231" t="n">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="E231" t="n">
-        <v>22905859</v>
+        <v>22991206</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
